--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_25_18.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_25_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1395975.967239757</v>
+        <v>-1396609.179095888</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.451805854</v>
+        <v>632041.4518058547</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13501494.60122111</v>
+        <v>13501494.60122112</v>
       </c>
     </row>
     <row r="11">
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>42.49402539587345</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>42.49402539587326</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>42.49402539587326</v>
       </c>
       <c r="E11" t="n">
-        <v>42.49402539587345</v>
+        <v>37.42873756868563</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>42.49402539587345</v>
+        <v>42.49402539587326</v>
       </c>
       <c r="I11" t="n">
-        <v>12.71192971168211</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>2.779624543948483</v>
+        <v>2.779624543948529</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>24.71680785700323</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1503,13 +1503,13 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>11.79296200847302</v>
+        <v>11.79296200847307</v>
       </c>
       <c r="V12" t="n">
-        <v>15.21273394540842</v>
+        <v>15.21273394540847</v>
       </c>
       <c r="W12" t="n">
-        <v>41.26839660701776</v>
+        <v>41.26839660701782</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1576,19 +1576,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>10.24158724936765</v>
+        <v>10.2415872493677</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>42.49402539587345</v>
+        <v>42.49402539587326</v>
       </c>
       <c r="V13" t="n">
-        <v>19.67282821445608</v>
+        <v>19.67282821445613</v>
       </c>
       <c r="W13" t="n">
-        <v>42.49402539587345</v>
+        <v>42.49402539587326</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>42.49402539587326</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1613,16 +1613,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>42.49402539587345</v>
+        <v>42.49402539587326</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>42.49402539587345</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>37.42873756868514</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1661,19 +1661,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>24.71680785700313</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>42.49402539587345</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>12.71192971168221</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>42.49402539587326</v>
       </c>
     </row>
     <row r="15">
@@ -1819,13 +1819,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>42.49402539587345</v>
+        <v>42.49402539587326</v>
       </c>
       <c r="V16" t="n">
         <v>19.67282821445596</v>
       </c>
       <c r="W16" t="n">
-        <v>42.49402539587345</v>
+        <v>42.49402539587326</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>36.19077655206644</v>
       </c>
       <c r="C17" t="n">
         <v>12.30903355541193</v>
@@ -1850,16 +1850,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>25.24153454356036</v>
+        <v>0.2195330058382936</v>
       </c>
       <c r="F17" t="n">
-        <v>42.49402539587345</v>
+        <v>42.49402539587326</v>
       </c>
       <c r="G17" t="n">
-        <v>42.49402539587345</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>9.43899991258969</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1907,10 +1907,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>21.88625046893924</v>
       </c>
       <c r="Y17" t="n">
-        <v>42.49402539587345</v>
+        <v>42.49402539587326</v>
       </c>
     </row>
     <row r="18">
@@ -2087,16 +2087,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>22.10578347477752</v>
       </c>
       <c r="F20" t="n">
-        <v>42.49402539587345</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2195330058387157</v>
+        <v>42.49402539587326</v>
       </c>
       <c r="H20" t="n">
-        <v>9.438999912589679</v>
+        <v>9.43899991258969</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2144,10 +2144,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>21.88625046893924</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>42.49402539587345</v>
+        <v>42.49402539587326</v>
       </c>
     </row>
     <row r="21">
@@ -2330,10 +2330,10 @@
         <v>65.30278581424659</v>
       </c>
       <c r="G23" t="n">
-        <v>77.40126617658959</v>
+        <v>77.40126617658949</v>
       </c>
       <c r="H23" t="n">
-        <v>9.438999912589679</v>
+        <v>9.43899991258969</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>137.2320734133373</v>
+        <v>137.2320734133372</v>
       </c>
       <c r="C26" t="n">
-        <v>113.3503304166828</v>
+        <v>113.3503304166827</v>
       </c>
       <c r="D26" t="n">
-        <v>100.9169926777313</v>
+        <v>100.9169926777312</v>
       </c>
       <c r="E26" t="n">
-        <v>134.6237450971401</v>
+        <v>134.62374509714</v>
       </c>
       <c r="F26" t="n">
-        <v>166.3440826755175</v>
+        <v>166.3440826755174</v>
       </c>
       <c r="G26" t="n">
-        <v>182.013672677494</v>
+        <v>182.0136726774939</v>
       </c>
       <c r="H26" t="n">
-        <v>110.4802967738606</v>
+        <v>110.4802967738605</v>
       </c>
       <c r="I26" t="n">
-        <v>5.336879406292695</v>
+        <v>5.33687940629261</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2609,19 +2609,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>13.29782786250104</v>
+        <v>13.29782786250096</v>
       </c>
       <c r="V26" t="n">
-        <v>84.02461664465599</v>
+        <v>84.02461664465591</v>
       </c>
       <c r="W26" t="n">
-        <v>101.0412968612709</v>
+        <v>101.0412968612708</v>
       </c>
       <c r="X26" t="n">
-        <v>122.9275473302101</v>
+        <v>122.92754733021</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.4304004539539</v>
+        <v>145.4304004539538</v>
       </c>
     </row>
     <row r="27">
@@ -2688,13 +2688,13 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0.3739820139708224</v>
+        <v>0.3739820139707371</v>
       </c>
       <c r="V27" t="n">
-        <v>3.793753950906222</v>
+        <v>3.793753950906137</v>
       </c>
       <c r="W27" t="n">
-        <v>29.84941661251557</v>
+        <v>29.84941661251548</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2767,13 +2767,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>51.80214033224855</v>
+        <v>51.80214033224846</v>
       </c>
       <c r="V28" t="n">
-        <v>8.253848219953881</v>
+        <v>8.253848219953795</v>
       </c>
       <c r="W28" t="n">
-        <v>53.4555401248393</v>
+        <v>53.45554012483922</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2798,7 +2798,7 @@
         <v>100.9169926777313</v>
       </c>
       <c r="E29" t="n">
-        <v>134.6237450971401</v>
+        <v>134.6237450971402</v>
       </c>
       <c r="F29" t="n">
         <v>166.3440826755175</v>
@@ -2810,7 +2810,7 @@
         <v>110.4802967738606</v>
       </c>
       <c r="I29" t="n">
-        <v>5.336879406292695</v>
+        <v>5.336879406292724</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2846,10 +2846,10 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>13.29782786250104</v>
+        <v>13.29782786250107</v>
       </c>
       <c r="V29" t="n">
-        <v>84.02461664465599</v>
+        <v>84.02461664465602</v>
       </c>
       <c r="W29" t="n">
         <v>101.0412968612709</v>
@@ -2925,13 +2925,13 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0.3739820139708224</v>
+        <v>0.3739820139708508</v>
       </c>
       <c r="V30" t="n">
-        <v>3.793753950906222</v>
+        <v>3.79375395090625</v>
       </c>
       <c r="W30" t="n">
-        <v>29.84941661251557</v>
+        <v>29.8494166125156</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -3004,13 +3004,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>51.80214033224855</v>
+        <v>51.80214033224858</v>
       </c>
       <c r="V31" t="n">
-        <v>8.253848219953881</v>
+        <v>8.253848219953909</v>
       </c>
       <c r="W31" t="n">
-        <v>53.4555401248393</v>
+        <v>53.45554012483933</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3035,7 +3035,7 @@
         <v>100.9169926777313</v>
       </c>
       <c r="E32" t="n">
-        <v>134.6237450971402</v>
+        <v>134.6237450971401</v>
       </c>
       <c r="F32" t="n">
         <v>166.3440826755175</v>
@@ -3044,10 +3044,10 @@
         <v>182.013672677494</v>
       </c>
       <c r="H32" t="n">
-        <v>110.4802967738606</v>
+        <v>110.4802967738605</v>
       </c>
       <c r="I32" t="n">
-        <v>5.336879406292724</v>
+        <v>5.336879406292695</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3083,10 +3083,10 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>13.29782786250107</v>
+        <v>13.29782786250104</v>
       </c>
       <c r="V32" t="n">
-        <v>84.02461664465602</v>
+        <v>84.02461664465599</v>
       </c>
       <c r="W32" t="n">
         <v>101.0412968612709</v>
@@ -3162,13 +3162,13 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0.3739820139708508</v>
+        <v>0.3739820139708224</v>
       </c>
       <c r="V33" t="n">
-        <v>3.79375395090625</v>
+        <v>3.793753950906222</v>
       </c>
       <c r="W33" t="n">
-        <v>29.8494166125156</v>
+        <v>29.84941661251557</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3241,13 +3241,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>51.80214033224858</v>
+        <v>51.80214033224855</v>
       </c>
       <c r="V34" t="n">
-        <v>8.253848219953909</v>
+        <v>8.253848219953881</v>
       </c>
       <c r="W34" t="n">
-        <v>53.45554012483933</v>
+        <v>53.4555401248393</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>123.9342455508363</v>
+        <v>123.9342455508362</v>
       </c>
       <c r="C35" t="n">
-        <v>100.0525025541818</v>
+        <v>100.0525025541817</v>
       </c>
       <c r="D35" t="n">
-        <v>87.61916481523022</v>
+        <v>87.61916481523016</v>
       </c>
       <c r="E35" t="n">
-        <v>121.3259172346391</v>
+        <v>121.325917234639</v>
       </c>
       <c r="F35" t="n">
         <v>153.0462548130164</v>
       </c>
       <c r="G35" t="n">
-        <v>168.715844814993</v>
+        <v>168.7158448149929</v>
       </c>
       <c r="H35" t="n">
-        <v>97.18246891135951</v>
+        <v>97.18246891135945</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3323,13 +3323,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>70.72678878215496</v>
+        <v>70.7267887821549</v>
       </c>
       <c r="W35" t="n">
-        <v>87.74346899876983</v>
+        <v>87.74346899876977</v>
       </c>
       <c r="X35" t="n">
-        <v>109.6297194677091</v>
+        <v>109.629719467709</v>
       </c>
       <c r="Y35" t="n">
         <v>132.1325725914528</v>
@@ -3405,7 +3405,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>16.55158875001453</v>
+        <v>16.55158875001447</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>38.50431246974751</v>
+        <v>38.50431246974745</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>40.15771226233826</v>
+        <v>40.15771226233821</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3506,10 +3506,10 @@
         <v>100.0525025541817</v>
       </c>
       <c r="D38" t="n">
-        <v>87.61916481523019</v>
+        <v>87.61916481523016</v>
       </c>
       <c r="E38" t="n">
-        <v>121.3259172346391</v>
+        <v>121.325917234639</v>
       </c>
       <c r="F38" t="n">
         <v>153.0462548130164</v>
@@ -3518,7 +3518,7 @@
         <v>168.7158448149929</v>
       </c>
       <c r="H38" t="n">
-        <v>97.18246891135948</v>
+        <v>97.18246891135945</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3560,10 +3560,10 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>70.72678878215493</v>
+        <v>70.7267887821549</v>
       </c>
       <c r="W38" t="n">
-        <v>87.7434689987698</v>
+        <v>87.74346899876977</v>
       </c>
       <c r="X38" t="n">
         <v>109.629719467709</v>
@@ -3642,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>16.5515887500145</v>
+        <v>16.55158875001447</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>38.50431246974748</v>
+        <v>38.50431246974745</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>40.15771226233824</v>
+        <v>40.15771226233821</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>102.0863710250325</v>
+        <v>169.9761015834935</v>
       </c>
       <c r="C11" t="n">
-        <v>102.0863710250325</v>
+        <v>127.052843607864</v>
       </c>
       <c r="D11" t="n">
-        <v>102.0863710250325</v>
+        <v>84.12958563223441</v>
       </c>
       <c r="E11" t="n">
-        <v>59.16311304940277</v>
+        <v>46.32278000729941</v>
       </c>
       <c r="F11" t="n">
-        <v>59.16311304940277</v>
+        <v>46.32278000729941</v>
       </c>
       <c r="G11" t="n">
-        <v>59.16311304940277</v>
+        <v>46.32278000729941</v>
       </c>
       <c r="H11" t="n">
-        <v>16.23985507377301</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="I11" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="J11" t="n">
-        <v>10.71262076758125</v>
+        <v>39.51191567682489</v>
       </c>
       <c r="K11" t="n">
-        <v>15.42685312422176</v>
+        <v>44.22614803346536</v>
       </c>
       <c r="L11" t="n">
-        <v>57.49593826613648</v>
+        <v>86.29523317537988</v>
       </c>
       <c r="M11" t="n">
-        <v>57.49593826613648</v>
+        <v>128.3643183172944</v>
       </c>
       <c r="N11" t="n">
-        <v>57.49593826613648</v>
+        <v>161.9798946384168</v>
       </c>
       <c r="O11" t="n">
-        <v>57.49593826613648</v>
+        <v>169.976101583493</v>
       </c>
       <c r="P11" t="n">
-        <v>99.56502340805119</v>
+        <v>169.976101583493</v>
       </c>
       <c r="Q11" t="n">
-        <v>141.6341085499659</v>
+        <v>169.976101583493</v>
       </c>
       <c r="R11" t="n">
-        <v>169.9761015834938</v>
+        <v>169.976101583493</v>
       </c>
       <c r="S11" t="n">
-        <v>167.1684000239502</v>
+        <v>167.1684000239491</v>
       </c>
       <c r="T11" t="n">
-        <v>169.9761015834938</v>
+        <v>169.9761015834935</v>
       </c>
       <c r="U11" t="n">
-        <v>145.0096290006623</v>
+        <v>169.9761015834935</v>
       </c>
       <c r="V11" t="n">
-        <v>145.0096290006623</v>
+        <v>169.9761015834935</v>
       </c>
       <c r="W11" t="n">
-        <v>145.0096290006623</v>
+        <v>169.9761015834935</v>
       </c>
       <c r="X11" t="n">
-        <v>145.0096290006623</v>
+        <v>169.9761015834935</v>
       </c>
       <c r="Y11" t="n">
-        <v>145.0096290006623</v>
+        <v>169.9761015834935</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="C12" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="D12" t="n">
-        <v>30.2941667492493</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="E12" t="n">
-        <v>30.2941667492493</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="F12" t="n">
-        <v>30.2941667492493</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="G12" t="n">
-        <v>30.2941667492493</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="H12" t="n">
-        <v>72.36325189116401</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="I12" t="n">
-        <v>72.36325189116401</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="J12" t="n">
-        <v>72.36325189116401</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="K12" t="n">
-        <v>72.36325189116401</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="L12" t="n">
-        <v>72.36325189116401</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="M12" t="n">
-        <v>72.36325189116401</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="N12" t="n">
-        <v>72.36325189116401</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="O12" t="n">
-        <v>72.36325189116401</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="P12" t="n">
-        <v>72.36325189116401</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="Q12" t="n">
-        <v>72.36325189116401</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="R12" t="n">
-        <v>72.36325189116401</v>
+        <v>39.1580360936071</v>
       </c>
       <c r="S12" t="n">
-        <v>72.36325189116401</v>
+        <v>72.36325189116417</v>
       </c>
       <c r="T12" t="n">
-        <v>72.36325189116401</v>
+        <v>72.36325189116417</v>
       </c>
       <c r="U12" t="n">
-        <v>60.45116905432258</v>
+        <v>60.45116905432268</v>
       </c>
       <c r="V12" t="n">
-        <v>45.08477112966762</v>
+        <v>45.08477112966766</v>
       </c>
       <c r="W12" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="X12" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="Y12" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6.881086277803663</v>
+        <v>11.61148704593696</v>
       </c>
       <c r="C13" t="n">
-        <v>48.95017141971837</v>
+        <v>11.61148704593696</v>
       </c>
       <c r="D13" t="n">
-        <v>48.95017141971837</v>
+        <v>11.61148704593696</v>
       </c>
       <c r="E13" t="n">
-        <v>48.95017141971837</v>
+        <v>11.61148704593696</v>
       </c>
       <c r="F13" t="n">
-        <v>48.95017141971837</v>
+        <v>53.68057218785149</v>
       </c>
       <c r="G13" t="n">
-        <v>48.95017141971837</v>
+        <v>53.68057218785149</v>
       </c>
       <c r="H13" t="n">
-        <v>48.95017141971837</v>
+        <v>53.68057218785149</v>
       </c>
       <c r="I13" t="n">
-        <v>48.95017141971837</v>
+        <v>53.68057218785149</v>
       </c>
       <c r="J13" t="n">
-        <v>48.95017141971837</v>
+        <v>77.39353411760418</v>
       </c>
       <c r="K13" t="n">
-        <v>48.95017141971837</v>
+        <v>77.39353411760418</v>
       </c>
       <c r="L13" t="n">
-        <v>48.95017141971837</v>
+        <v>77.39353411760418</v>
       </c>
       <c r="M13" t="n">
-        <v>48.95017141971837</v>
+        <v>77.39353411760418</v>
       </c>
       <c r="N13" t="n">
-        <v>48.95017141971837</v>
+        <v>119.4626192595187</v>
       </c>
       <c r="O13" t="n">
-        <v>56.21970588496379</v>
+        <v>119.4626192595187</v>
       </c>
       <c r="P13" t="n">
-        <v>98.2887910268785</v>
+        <v>119.4626192595187</v>
       </c>
       <c r="Q13" t="n">
-        <v>98.2887910268785</v>
+        <v>119.4626192595187</v>
       </c>
       <c r="R13" t="n">
-        <v>119.462619259519</v>
+        <v>119.4626192595187</v>
       </c>
       <c r="S13" t="n">
-        <v>109.1175816338951</v>
+        <v>109.1175816338948</v>
       </c>
       <c r="T13" t="n">
-        <v>109.1175816338951</v>
+        <v>109.1175816338948</v>
       </c>
       <c r="U13" t="n">
-        <v>66.19432365826536</v>
+        <v>66.1943236582652</v>
       </c>
       <c r="V13" t="n">
-        <v>46.32278000729963</v>
+        <v>46.32278000729941</v>
       </c>
       <c r="W13" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="X13" t="n">
-        <v>6.881086277803663</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="Y13" t="n">
-        <v>6.881086277803663</v>
+        <v>11.61148704593696</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>89.24603798292938</v>
+        <v>84.1295856322339</v>
       </c>
       <c r="C14" t="n">
-        <v>89.24603798292938</v>
+        <v>84.1295856322339</v>
       </c>
       <c r="D14" t="n">
-        <v>89.24603798292938</v>
+        <v>84.1295856322339</v>
       </c>
       <c r="E14" t="n">
-        <v>46.32278000729963</v>
+        <v>41.20632765660435</v>
       </c>
       <c r="F14" t="n">
-        <v>46.32278000729963</v>
+        <v>41.20632765660435</v>
       </c>
       <c r="G14" t="n">
-        <v>3.399522031669876</v>
+        <v>41.20632765660435</v>
       </c>
       <c r="H14" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="I14" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="J14" t="n">
-        <v>39.51191567682518</v>
+        <v>39.51191567682516</v>
       </c>
       <c r="K14" t="n">
-        <v>43.76884615774966</v>
+        <v>39.51191567682516</v>
       </c>
       <c r="L14" t="n">
-        <v>85.83793129966438</v>
+        <v>39.51191567682516</v>
       </c>
       <c r="M14" t="n">
-        <v>127.9070164415791</v>
+        <v>56.73261717120498</v>
       </c>
       <c r="N14" t="n">
-        <v>169.9761015834938</v>
+        <v>98.80170231311951</v>
       </c>
       <c r="O14" t="n">
-        <v>169.9761015834938</v>
+        <v>127.9070164415785</v>
       </c>
       <c r="P14" t="n">
-        <v>169.9761015834938</v>
+        <v>127.9070164415785</v>
       </c>
       <c r="Q14" t="n">
-        <v>169.9761015834938</v>
+        <v>169.976101583493</v>
       </c>
       <c r="R14" t="n">
-        <v>169.9761015834938</v>
+        <v>169.976101583493</v>
       </c>
       <c r="S14" t="n">
-        <v>167.16840002395</v>
+        <v>167.1684000239493</v>
       </c>
       <c r="T14" t="n">
-        <v>169.9761015834938</v>
+        <v>169.976101583493</v>
       </c>
       <c r="U14" t="n">
-        <v>145.0096290006624</v>
+        <v>169.976101583493</v>
       </c>
       <c r="V14" t="n">
-        <v>102.0863710250326</v>
+        <v>169.976101583493</v>
       </c>
       <c r="W14" t="n">
-        <v>89.24603798292938</v>
+        <v>169.976101583493</v>
       </c>
       <c r="X14" t="n">
-        <v>89.24603798292938</v>
+        <v>169.976101583493</v>
       </c>
       <c r="Y14" t="n">
-        <v>89.24603798292938</v>
+        <v>127.0528436078635</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.399522031669876</v>
+        <v>19.99903089403677</v>
       </c>
       <c r="C15" t="n">
-        <v>3.399522031669876</v>
+        <v>19.99903089403677</v>
       </c>
       <c r="D15" t="n">
-        <v>3.399522031669876</v>
+        <v>19.99903089403677</v>
       </c>
       <c r="E15" t="n">
-        <v>3.399522031669876</v>
+        <v>19.99903089403677</v>
       </c>
       <c r="F15" t="n">
-        <v>3.399522031669876</v>
+        <v>62.0681160359513</v>
       </c>
       <c r="G15" t="n">
-        <v>45.46860717358459</v>
+        <v>62.0681160359513</v>
       </c>
       <c r="H15" t="n">
-        <v>45.46860717358459</v>
+        <v>62.0681160359513</v>
       </c>
       <c r="I15" t="n">
-        <v>45.46860717358459</v>
+        <v>62.0681160359513</v>
       </c>
       <c r="J15" t="n">
-        <v>45.46860717358459</v>
+        <v>62.0681160359513</v>
       </c>
       <c r="K15" t="n">
-        <v>45.46860717358459</v>
+        <v>62.0681160359513</v>
       </c>
       <c r="L15" t="n">
-        <v>45.46860717358459</v>
+        <v>62.0681160359513</v>
       </c>
       <c r="M15" t="n">
-        <v>45.46860717358459</v>
+        <v>62.0681160359513</v>
       </c>
       <c r="N15" t="n">
-        <v>45.46860717358459</v>
+        <v>62.0681160359513</v>
       </c>
       <c r="O15" t="n">
-        <v>45.46860717358459</v>
+        <v>62.0681160359513</v>
       </c>
       <c r="P15" t="n">
-        <v>45.46860717358459</v>
+        <v>62.0681160359513</v>
       </c>
       <c r="Q15" t="n">
-        <v>72.36325189116367</v>
+        <v>62.0681160359513</v>
       </c>
       <c r="R15" t="n">
-        <v>72.36325189116367</v>
+        <v>62.0681160359513</v>
       </c>
       <c r="S15" t="n">
-        <v>72.36325189116367</v>
+        <v>62.0681160359513</v>
       </c>
       <c r="T15" t="n">
-        <v>72.36325189116367</v>
+        <v>72.36325189116366</v>
       </c>
       <c r="U15" t="n">
-        <v>60.45116905432235</v>
+        <v>60.45116905432234</v>
       </c>
       <c r="V15" t="n">
-        <v>45.0847711296675</v>
+        <v>45.08477112966749</v>
       </c>
       <c r="W15" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="X15" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="Y15" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="C16" t="n">
-        <v>3.399522031669876</v>
+        <v>45.46860717358439</v>
       </c>
       <c r="D16" t="n">
-        <v>3.399522031669876</v>
+        <v>45.46860717358439</v>
       </c>
       <c r="E16" t="n">
-        <v>3.399522031669876</v>
+        <v>45.46860717358439</v>
       </c>
       <c r="F16" t="n">
-        <v>12.5509264588536</v>
+        <v>87.53769231549892</v>
       </c>
       <c r="G16" t="n">
-        <v>12.5509264588536</v>
+        <v>87.53769231549892</v>
       </c>
       <c r="H16" t="n">
-        <v>12.5509264588536</v>
+        <v>87.53769231549892</v>
       </c>
       <c r="I16" t="n">
-        <v>12.5509264588536</v>
+        <v>87.53769231549892</v>
       </c>
       <c r="J16" t="n">
-        <v>54.62001160076831</v>
+        <v>87.53769231549892</v>
       </c>
       <c r="K16" t="n">
-        <v>54.62001160076831</v>
+        <v>87.53769231549892</v>
       </c>
       <c r="L16" t="n">
-        <v>54.62001160076831</v>
+        <v>87.53769231549892</v>
       </c>
       <c r="M16" t="n">
-        <v>54.62001160076831</v>
+        <v>87.53769231549892</v>
       </c>
       <c r="N16" t="n">
-        <v>54.62001160076831</v>
+        <v>87.53769231549892</v>
       </c>
       <c r="O16" t="n">
-        <v>54.62001160076831</v>
+        <v>119.4626192595183</v>
       </c>
       <c r="P16" t="n">
-        <v>54.62001160076831</v>
+        <v>119.4626192595183</v>
       </c>
       <c r="Q16" t="n">
-        <v>96.68909674268302</v>
+        <v>119.4626192595183</v>
       </c>
       <c r="R16" t="n">
-        <v>117.8629249753237</v>
+        <v>119.4626192595183</v>
       </c>
       <c r="S16" t="n">
-        <v>107.5178873496999</v>
+        <v>109.1175816338946</v>
       </c>
       <c r="T16" t="n">
-        <v>109.117581633895</v>
+        <v>109.1175816338946</v>
       </c>
       <c r="U16" t="n">
-        <v>66.19432365826525</v>
+        <v>66.19432365826503</v>
       </c>
       <c r="V16" t="n">
-        <v>46.32278000729963</v>
+        <v>46.32278000729941</v>
       </c>
       <c r="W16" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="X16" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>127.052843607864</v>
+        <v>68.38917995028199</v>
       </c>
       <c r="C17" t="n">
-        <v>114.6194763801752</v>
+        <v>55.95581272259317</v>
       </c>
       <c r="D17" t="n">
-        <v>114.7425375218794</v>
+        <v>56.07887386429738</v>
       </c>
       <c r="E17" t="n">
-        <v>89.24603798292938</v>
+        <v>55.85712335334961</v>
       </c>
       <c r="F17" t="n">
-        <v>46.32278000729963</v>
+        <v>12.93386537772005</v>
       </c>
       <c r="G17" t="n">
-        <v>3.399522031669876</v>
+        <v>12.93386537772005</v>
       </c>
       <c r="H17" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="I17" t="n">
-        <v>45.46860717358459</v>
+        <v>43.76884615774945</v>
       </c>
       <c r="J17" t="n">
-        <v>45.46860717358459</v>
+        <v>43.76884615774945</v>
       </c>
       <c r="K17" t="n">
-        <v>45.46860717358459</v>
+        <v>85.83793129966398</v>
       </c>
       <c r="L17" t="n">
-        <v>45.46860717358459</v>
+        <v>85.83793129966398</v>
       </c>
       <c r="M17" t="n">
-        <v>87.5376923154993</v>
+        <v>85.83793129966398</v>
       </c>
       <c r="N17" t="n">
-        <v>87.5376923154993</v>
+        <v>85.83793129966398</v>
       </c>
       <c r="O17" t="n">
-        <v>87.5376923154993</v>
+        <v>85.83793129966398</v>
       </c>
       <c r="P17" t="n">
-        <v>87.5376923154993</v>
+        <v>127.9070164415785</v>
       </c>
       <c r="Q17" t="n">
-        <v>111.0605030271304</v>
+        <v>127.9070164415785</v>
       </c>
       <c r="R17" t="n">
-        <v>111.0605030271304</v>
+        <v>127.9070164415785</v>
       </c>
       <c r="S17" t="n">
-        <v>111.0605030271304</v>
+        <v>127.9070164415785</v>
       </c>
       <c r="T17" t="n">
-        <v>111.0605030271304</v>
+        <v>169.976101583493</v>
       </c>
       <c r="U17" t="n">
-        <v>153.1295881690451</v>
+        <v>169.976101583493</v>
       </c>
       <c r="V17" t="n">
-        <v>169.9761015834938</v>
+        <v>169.976101583493</v>
       </c>
       <c r="W17" t="n">
-        <v>169.9761015834938</v>
+        <v>169.976101583493</v>
       </c>
       <c r="X17" t="n">
-        <v>169.9761015834938</v>
+        <v>147.8687778774938</v>
       </c>
       <c r="Y17" t="n">
-        <v>127.052843607864</v>
+        <v>104.9455199018643</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="C18" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="D18" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="E18" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="F18" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="G18" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="H18" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="I18" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="J18" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="K18" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="L18" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="M18" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="N18" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="O18" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="P18" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="Q18" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="R18" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="S18" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="T18" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="U18" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="V18" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="W18" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="X18" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="Y18" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="C19" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="D19" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="E19" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="F19" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="G19" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="H19" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="I19" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="J19" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="K19" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="L19" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="M19" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="N19" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="O19" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="P19" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="R19" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="S19" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="T19" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="U19" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="V19" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="W19" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="X19" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="Y19" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>68.38917995028268</v>
+        <v>90.49650365628121</v>
       </c>
       <c r="C20" t="n">
-        <v>55.95581272259384</v>
+        <v>78.06313642859239</v>
       </c>
       <c r="D20" t="n">
-        <v>56.07887386429801</v>
+        <v>78.1861975702966</v>
       </c>
       <c r="E20" t="n">
-        <v>56.07887386429801</v>
+        <v>55.85712335334961</v>
       </c>
       <c r="F20" t="n">
-        <v>13.15561588866826</v>
+        <v>55.85712335334961</v>
       </c>
       <c r="G20" t="n">
-        <v>12.93386537772006</v>
+        <v>12.93386537772005</v>
       </c>
       <c r="H20" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="I20" t="n">
-        <v>45.46860717358459</v>
+        <v>45.46860717358439</v>
       </c>
       <c r="J20" t="n">
-        <v>85.83793129966438</v>
+        <v>87.53769231549892</v>
       </c>
       <c r="K20" t="n">
-        <v>85.83793129966438</v>
+        <v>87.53769231549892</v>
       </c>
       <c r="L20" t="n">
-        <v>85.83793129966438</v>
+        <v>87.53769231549892</v>
       </c>
       <c r="M20" t="n">
-        <v>127.9070164415791</v>
+        <v>87.53769231549892</v>
       </c>
       <c r="N20" t="n">
-        <v>127.9070164415791</v>
+        <v>87.53769231549892</v>
       </c>
       <c r="O20" t="n">
-        <v>127.9070164415791</v>
+        <v>87.53769231549892</v>
       </c>
       <c r="P20" t="n">
-        <v>127.9070164415791</v>
+        <v>87.53769231549892</v>
       </c>
       <c r="Q20" t="n">
-        <v>127.9070164415791</v>
+        <v>87.53769231549892</v>
       </c>
       <c r="R20" t="n">
-        <v>169.9761015834938</v>
+        <v>87.53769231549892</v>
       </c>
       <c r="S20" t="n">
-        <v>169.9761015834938</v>
+        <v>129.6067774574134</v>
       </c>
       <c r="T20" t="n">
-        <v>169.9761015834938</v>
+        <v>169.976101583493</v>
       </c>
       <c r="U20" t="n">
-        <v>169.9761015834938</v>
+        <v>169.976101583493</v>
       </c>
       <c r="V20" t="n">
-        <v>169.9761015834938</v>
+        <v>169.976101583493</v>
       </c>
       <c r="W20" t="n">
-        <v>169.9761015834938</v>
+        <v>169.976101583493</v>
       </c>
       <c r="X20" t="n">
-        <v>147.8687778774946</v>
+        <v>169.976101583493</v>
       </c>
       <c r="Y20" t="n">
-        <v>104.945519901865</v>
+        <v>127.0528436078635</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="C21" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="D21" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="E21" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="F21" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="G21" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="H21" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="I21" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="J21" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="K21" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="L21" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="M21" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="N21" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="O21" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="P21" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="Q21" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="R21" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="S21" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="T21" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="U21" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="V21" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="W21" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="X21" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="Y21" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="C22" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="D22" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="E22" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="F22" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="G22" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="H22" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="I22" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="J22" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="K22" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="L22" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="M22" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="N22" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="O22" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="P22" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="R22" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="S22" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="T22" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="U22" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="V22" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="W22" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="X22" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
       <c r="Y22" t="n">
-        <v>3.399522031669876</v>
+        <v>3.399522031669861</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>206.1039226723293</v>
+        <v>206.103922672329</v>
       </c>
       <c r="C23" t="n">
-        <v>193.6705554446405</v>
+        <v>193.6705554446402</v>
       </c>
       <c r="D23" t="n">
-        <v>193.7936165863446</v>
+        <v>193.7936165863444</v>
       </c>
       <c r="E23" t="n">
-        <v>159.8719517016282</v>
+        <v>159.8719517016279</v>
       </c>
       <c r="F23" t="n">
-        <v>93.90954178824774</v>
+        <v>93.90954178824757</v>
       </c>
       <c r="G23" t="n">
         <v>15.72644464017735</v>
       </c>
       <c r="H23" t="n">
-        <v>6.192101294127167</v>
+        <v>6.192101294127159</v>
       </c>
       <c r="I23" t="n">
-        <v>6.192101294127167</v>
+        <v>82.81935480895075</v>
       </c>
       <c r="J23" t="n">
-        <v>6.192101294127167</v>
+        <v>159.4466083237743</v>
       </c>
       <c r="K23" t="n">
-        <v>6.192101294127167</v>
+        <v>159.4466083237743</v>
       </c>
       <c r="L23" t="n">
-        <v>6.192101294127167</v>
+        <v>159.4466083237743</v>
       </c>
       <c r="M23" t="n">
-        <v>6.192101294127167</v>
+        <v>159.4466083237743</v>
       </c>
       <c r="N23" t="n">
-        <v>6.192101294127167</v>
+        <v>159.4466083237743</v>
       </c>
       <c r="O23" t="n">
-        <v>6.192101294127167</v>
+        <v>159.4466083237743</v>
       </c>
       <c r="P23" t="n">
-        <v>6.192101294127167</v>
+        <v>159.4466083237743</v>
       </c>
       <c r="Q23" t="n">
-        <v>6.192101294127167</v>
+        <v>216.1312977770856</v>
       </c>
       <c r="R23" t="n">
-        <v>62.87679074743856</v>
+        <v>216.1312977770856</v>
       </c>
       <c r="S23" t="n">
-        <v>139.5040442622623</v>
+        <v>216.1312977770856</v>
       </c>
       <c r="T23" t="n">
-        <v>216.1312977770859</v>
+        <v>216.1312977770856</v>
       </c>
       <c r="U23" t="n">
-        <v>292.7585512919096</v>
+        <v>292.7585512919092</v>
       </c>
       <c r="V23" t="n">
-        <v>309.6050647063583</v>
+        <v>309.605064706358</v>
       </c>
       <c r="W23" t="n">
-        <v>309.6050647063583</v>
+        <v>309.605064706358</v>
       </c>
       <c r="X23" t="n">
-        <v>287.4977410003591</v>
+        <v>287.4977410003587</v>
       </c>
       <c r="Y23" t="n">
-        <v>242.6602626239116</v>
+        <v>242.6602626239112</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>6.192101294127167</v>
+        <v>309.605064706358</v>
       </c>
       <c r="C24" t="n">
-        <v>6.192101294127167</v>
+        <v>309.605064706358</v>
       </c>
       <c r="D24" t="n">
-        <v>6.192101294127167</v>
+        <v>309.605064706358</v>
       </c>
       <c r="E24" t="n">
-        <v>6.192101294127167</v>
+        <v>309.605064706358</v>
       </c>
       <c r="F24" t="n">
-        <v>6.192101294127167</v>
+        <v>309.605064706358</v>
       </c>
       <c r="G24" t="n">
-        <v>6.192101294127167</v>
+        <v>309.605064706358</v>
       </c>
       <c r="H24" t="n">
-        <v>6.192101294127167</v>
+        <v>309.605064706358</v>
       </c>
       <c r="I24" t="n">
-        <v>6.192101294127167</v>
+        <v>309.605064706358</v>
       </c>
       <c r="J24" t="n">
-        <v>6.192101294127167</v>
+        <v>309.605064706358</v>
       </c>
       <c r="K24" t="n">
-        <v>6.192101294127167</v>
+        <v>309.605064706358</v>
       </c>
       <c r="L24" t="n">
-        <v>6.192101294127167</v>
+        <v>309.605064706358</v>
       </c>
       <c r="M24" t="n">
-        <v>6.192101294127167</v>
+        <v>309.605064706358</v>
       </c>
       <c r="N24" t="n">
-        <v>6.192101294127167</v>
+        <v>309.605064706358</v>
       </c>
       <c r="O24" t="n">
-        <v>6.192101294127167</v>
+        <v>309.605064706358</v>
       </c>
       <c r="P24" t="n">
-        <v>6.192101294127167</v>
+        <v>309.605064706358</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.192101294127167</v>
+        <v>309.605064706358</v>
       </c>
       <c r="R24" t="n">
-        <v>6.192101294127167</v>
+        <v>309.605064706358</v>
       </c>
       <c r="S24" t="n">
-        <v>6.192101294127167</v>
+        <v>309.605064706358</v>
       </c>
       <c r="T24" t="n">
-        <v>6.192101294127167</v>
+        <v>309.605064706358</v>
       </c>
       <c r="U24" t="n">
-        <v>6.192101294127167</v>
+        <v>309.605064706358</v>
       </c>
       <c r="V24" t="n">
-        <v>6.192101294127167</v>
+        <v>309.605064706358</v>
       </c>
       <c r="W24" t="n">
-        <v>6.192101294127167</v>
+        <v>309.605064706358</v>
       </c>
       <c r="X24" t="n">
-        <v>6.192101294127167</v>
+        <v>309.605064706358</v>
       </c>
       <c r="Y24" t="n">
-        <v>6.192101294127167</v>
+        <v>309.605064706358</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6.192101294127167</v>
+        <v>6.192101294127159</v>
       </c>
       <c r="C25" t="n">
-        <v>6.192101294127167</v>
+        <v>6.192101294127159</v>
       </c>
       <c r="D25" t="n">
-        <v>6.192101294127167</v>
+        <v>6.192101294127159</v>
       </c>
       <c r="E25" t="n">
-        <v>6.192101294127167</v>
+        <v>6.192101294127159</v>
       </c>
       <c r="F25" t="n">
-        <v>6.192101294127167</v>
+        <v>6.192101294127159</v>
       </c>
       <c r="G25" t="n">
-        <v>6.192101294127167</v>
+        <v>6.192101294127159</v>
       </c>
       <c r="H25" t="n">
-        <v>6.192101294127167</v>
+        <v>6.192101294127159</v>
       </c>
       <c r="I25" t="n">
-        <v>6.192101294127167</v>
+        <v>6.192101294127159</v>
       </c>
       <c r="J25" t="n">
-        <v>6.192101294127167</v>
+        <v>6.192101294127159</v>
       </c>
       <c r="K25" t="n">
-        <v>6.192101294127167</v>
+        <v>6.192101294127159</v>
       </c>
       <c r="L25" t="n">
-        <v>6.192101294127167</v>
+        <v>6.192101294127159</v>
       </c>
       <c r="M25" t="n">
-        <v>6.192101294127167</v>
+        <v>6.192101294127159</v>
       </c>
       <c r="N25" t="n">
-        <v>6.192101294127167</v>
+        <v>6.192101294127159</v>
       </c>
       <c r="O25" t="n">
-        <v>6.192101294127167</v>
+        <v>6.192101294127159</v>
       </c>
       <c r="P25" t="n">
-        <v>6.192101294127167</v>
+        <v>6.192101294127159</v>
       </c>
       <c r="Q25" t="n">
-        <v>6.192101294127167</v>
+        <v>6.192101294127159</v>
       </c>
       <c r="R25" t="n">
-        <v>6.192101294127167</v>
+        <v>6.192101294127159</v>
       </c>
       <c r="S25" t="n">
-        <v>6.192101294127167</v>
+        <v>6.192101294127159</v>
       </c>
       <c r="T25" t="n">
-        <v>6.192101294127167</v>
+        <v>6.192101294127159</v>
       </c>
       <c r="U25" t="n">
-        <v>6.192101294127167</v>
+        <v>6.192101294127159</v>
       </c>
       <c r="V25" t="n">
-        <v>6.192101294127167</v>
+        <v>6.192101294127159</v>
       </c>
       <c r="W25" t="n">
-        <v>6.192101294127167</v>
+        <v>6.192101294127159</v>
       </c>
       <c r="X25" t="n">
-        <v>6.192101294127167</v>
+        <v>6.192101294127159</v>
       </c>
       <c r="Y25" t="n">
-        <v>6.192101294127167</v>
+        <v>6.192101294127159</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>850.4896670542545</v>
+        <v>850.4896670542537</v>
       </c>
       <c r="C26" t="n">
-        <v>735.9943838050799</v>
+        <v>735.9943838050792</v>
       </c>
       <c r="D26" t="n">
-        <v>634.0580275649473</v>
+        <v>634.0580275649467</v>
       </c>
       <c r="E26" t="n">
-        <v>498.0744466587452</v>
+        <v>498.0744466587446</v>
       </c>
       <c r="F26" t="n">
-        <v>330.050120723879</v>
+        <v>330.0501207238785</v>
       </c>
       <c r="G26" t="n">
-        <v>146.1979261001476</v>
+        <v>146.1979261001473</v>
       </c>
       <c r="H26" t="n">
-        <v>34.60166673261164</v>
+        <v>34.60166673261153</v>
       </c>
       <c r="I26" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352808</v>
       </c>
       <c r="J26" t="n">
-        <v>76.62806329324037</v>
+        <v>76.62806329324043</v>
       </c>
       <c r="K26" t="n">
-        <v>76.62806329324037</v>
+        <v>300.5928509170918</v>
       </c>
       <c r="L26" t="n">
-        <v>353.0444833886717</v>
+        <v>577.0092710125232</v>
       </c>
       <c r="M26" t="n">
-        <v>472.6693001477045</v>
+        <v>887.02683284099</v>
       </c>
       <c r="N26" t="n">
-        <v>777.0665956392641</v>
+        <v>956.9375130376985</v>
       </c>
       <c r="O26" t="n">
-        <v>1040.658525062574</v>
+        <v>1102.78221887339</v>
       </c>
       <c r="P26" t="n">
-        <v>1255.838279975419</v>
+        <v>1317.961973786235</v>
       </c>
       <c r="Q26" t="n">
-        <v>1398.231735798171</v>
+        <v>1437.878519026255</v>
       </c>
       <c r="R26" t="n">
-        <v>1437.878519026257</v>
+        <v>1437.878519026255</v>
       </c>
       <c r="S26" t="n">
-        <v>1446.431480922305</v>
+        <v>1446.431480922303</v>
       </c>
       <c r="T26" t="n">
-        <v>1460.543972676405</v>
+        <v>1460.543972676404</v>
       </c>
       <c r="U26" t="n">
-        <v>1447.111823320344</v>
+        <v>1447.111823320342</v>
       </c>
       <c r="V26" t="n">
-        <v>1362.238473174226</v>
+        <v>1362.238473174225</v>
       </c>
       <c r="W26" t="n">
-        <v>1260.176557152741</v>
+        <v>1260.176557152739</v>
       </c>
       <c r="X26" t="n">
-        <v>1136.007317425256</v>
+        <v>1136.007317425255</v>
       </c>
       <c r="Y26" t="n">
-        <v>989.1079230273225</v>
+        <v>989.1079230273216</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>48.55770945330327</v>
+        <v>29.21087945352808</v>
       </c>
       <c r="C27" t="n">
-        <v>48.55770945330327</v>
+        <v>29.21087945352808</v>
       </c>
       <c r="D27" t="n">
-        <v>48.55770945330327</v>
+        <v>29.21087945352808</v>
       </c>
       <c r="E27" t="n">
-        <v>48.55770945330327</v>
+        <v>29.21087945352808</v>
       </c>
       <c r="F27" t="n">
-        <v>48.55770945330327</v>
+        <v>29.21087945352808</v>
       </c>
       <c r="G27" t="n">
-        <v>48.55770945330327</v>
+        <v>29.21087945352808</v>
       </c>
       <c r="H27" t="n">
-        <v>48.55770945330327</v>
+        <v>29.21087945352808</v>
       </c>
       <c r="I27" t="n">
-        <v>48.55770945330327</v>
+        <v>29.21087945352808</v>
       </c>
       <c r="J27" t="n">
-        <v>48.55770945330327</v>
+        <v>29.21087945352808</v>
       </c>
       <c r="K27" t="n">
-        <v>48.55770945330327</v>
+        <v>29.21087945352808</v>
       </c>
       <c r="L27" t="n">
-        <v>48.55770945330327</v>
+        <v>29.21087945352808</v>
       </c>
       <c r="M27" t="n">
-        <v>48.55770945330327</v>
+        <v>29.21087945352808</v>
       </c>
       <c r="N27" t="n">
-        <v>63.57163963271258</v>
+        <v>63.57163963271228</v>
       </c>
       <c r="O27" t="n">
-        <v>63.57163963271258</v>
+        <v>63.57163963271228</v>
       </c>
       <c r="P27" t="n">
-        <v>63.57163963271258</v>
+        <v>63.57163963271228</v>
       </c>
       <c r="Q27" t="n">
-        <v>63.57163963271258</v>
+        <v>63.57163963271228</v>
       </c>
       <c r="R27" t="n">
-        <v>63.57163963271258</v>
+        <v>63.57163963271228</v>
       </c>
       <c r="S27" t="n">
-        <v>63.57163963271258</v>
+        <v>63.57163963271228</v>
       </c>
       <c r="T27" t="n">
-        <v>63.57163963271258</v>
+        <v>63.57163963271228</v>
       </c>
       <c r="U27" t="n">
-        <v>63.19388002264104</v>
+        <v>63.19388002264083</v>
       </c>
       <c r="V27" t="n">
-        <v>59.36180532475596</v>
+        <v>59.36180532475585</v>
       </c>
       <c r="W27" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352808</v>
       </c>
       <c r="X27" t="n">
-        <v>48.55770945330327</v>
+        <v>29.21087945352808</v>
       </c>
       <c r="Y27" t="n">
-        <v>48.55770945330327</v>
+        <v>29.21087945352808</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352808</v>
       </c>
       <c r="C28" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352808</v>
       </c>
       <c r="D28" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352808</v>
       </c>
       <c r="E28" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352808</v>
       </c>
       <c r="F28" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352808</v>
       </c>
       <c r="G28" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352808</v>
       </c>
       <c r="H28" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352808</v>
       </c>
       <c r="I28" t="n">
-        <v>100.0835122344484</v>
+        <v>29.21087945352808</v>
       </c>
       <c r="J28" t="n">
-        <v>100.0835122344484</v>
+        <v>29.21087945352808</v>
       </c>
       <c r="K28" t="n">
-        <v>100.0835122344484</v>
+        <v>29.21087945352808</v>
       </c>
       <c r="L28" t="n">
-        <v>100.0835122344484</v>
+        <v>29.21087945352808</v>
       </c>
       <c r="M28" t="n">
-        <v>100.0835122344484</v>
+        <v>29.21087945352808</v>
       </c>
       <c r="N28" t="n">
-        <v>100.0835122344484</v>
+        <v>53.00586581519943</v>
       </c>
       <c r="O28" t="n">
-        <v>100.0835122344484</v>
+        <v>143.8689892283174</v>
       </c>
       <c r="P28" t="n">
-        <v>100.0835122344484</v>
+        <v>143.8689892283174</v>
       </c>
       <c r="Q28" t="n">
-        <v>100.0835122344484</v>
+        <v>143.8689892283174</v>
       </c>
       <c r="R28" t="n">
-        <v>130.9645047495656</v>
+        <v>143.8689892283174</v>
       </c>
       <c r="S28" t="n">
-        <v>130.9645047495656</v>
+        <v>143.8689892283174</v>
       </c>
       <c r="T28" t="n">
-        <v>143.8689892283177</v>
+        <v>143.8689892283174</v>
       </c>
       <c r="U28" t="n">
-        <v>91.5435949533192</v>
+        <v>91.543594953319</v>
       </c>
       <c r="V28" t="n">
-        <v>83.20637452912337</v>
+        <v>83.20637452912325</v>
       </c>
       <c r="W28" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352808</v>
       </c>
       <c r="X28" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352808</v>
       </c>
       <c r="Y28" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352808</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>850.4896670542546</v>
+        <v>850.489667054253</v>
       </c>
       <c r="C29" t="n">
-        <v>735.99438380508</v>
+        <v>735.9943838050784</v>
       </c>
       <c r="D29" t="n">
-        <v>634.0580275649473</v>
+        <v>634.0580275649459</v>
       </c>
       <c r="E29" t="n">
-        <v>498.0744466587452</v>
+        <v>498.0744466587437</v>
       </c>
       <c r="F29" t="n">
-        <v>330.0501207238798</v>
+        <v>330.0501207238775</v>
       </c>
       <c r="G29" t="n">
-        <v>146.1979261001484</v>
+        <v>146.1979261001462</v>
       </c>
       <c r="H29" t="n">
         <v>34.60166673261164</v>
       </c>
       <c r="I29" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352808</v>
       </c>
       <c r="J29" t="n">
-        <v>185.1069238584292</v>
+        <v>185.1069238584291</v>
       </c>
       <c r="K29" t="n">
-        <v>340.5697156684899</v>
+        <v>263.1153893414089</v>
       </c>
       <c r="L29" t="n">
-        <v>616.9861357639213</v>
+        <v>539.5318094368401</v>
       </c>
       <c r="M29" t="n">
-        <v>927.0036975923881</v>
+        <v>849.5493712653068</v>
       </c>
       <c r="N29" t="n">
-        <v>1163.750983745693</v>
+        <v>919.4600514620154</v>
       </c>
       <c r="O29" t="n">
-        <v>1183.051980885327</v>
+        <v>1183.051980885325</v>
       </c>
       <c r="P29" t="n">
-        <v>1398.231735798171</v>
+        <v>1398.23173579817</v>
       </c>
       <c r="Q29" t="n">
-        <v>1398.231735798171</v>
+        <v>1398.23173579817</v>
       </c>
       <c r="R29" t="n">
-        <v>1437.878519026257</v>
+        <v>1437.878519026255</v>
       </c>
       <c r="S29" t="n">
-        <v>1446.431480922305</v>
+        <v>1446.431480922303</v>
       </c>
       <c r="T29" t="n">
-        <v>1460.543972676405</v>
+        <v>1460.543972676404</v>
       </c>
       <c r="U29" t="n">
-        <v>1447.111823320344</v>
+        <v>1447.111823320342</v>
       </c>
       <c r="V29" t="n">
-        <v>1362.238473174227</v>
+        <v>1362.238473174225</v>
       </c>
       <c r="W29" t="n">
-        <v>1260.176557152741</v>
+        <v>1260.176557152739</v>
       </c>
       <c r="X29" t="n">
-        <v>1136.007317425256</v>
+        <v>1136.007317425254</v>
       </c>
       <c r="Y29" t="n">
-        <v>989.1079230273226</v>
+        <v>989.107923027321</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352808</v>
       </c>
       <c r="C30" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352808</v>
       </c>
       <c r="D30" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352808</v>
       </c>
       <c r="E30" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352808</v>
       </c>
       <c r="F30" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352808</v>
       </c>
       <c r="G30" t="n">
-        <v>63.57163963271258</v>
+        <v>29.21087945352808</v>
       </c>
       <c r="H30" t="n">
-        <v>63.57163963271258</v>
+        <v>29.21087945352808</v>
       </c>
       <c r="I30" t="n">
-        <v>63.57163963271258</v>
+        <v>29.21087945352808</v>
       </c>
       <c r="J30" t="n">
-        <v>63.57163963271258</v>
+        <v>29.21087945352808</v>
       </c>
       <c r="K30" t="n">
-        <v>63.57163963271258</v>
+        <v>29.21087945352808</v>
       </c>
       <c r="L30" t="n">
-        <v>63.57163963271258</v>
+        <v>29.21087945352808</v>
       </c>
       <c r="M30" t="n">
-        <v>63.57163963271258</v>
+        <v>29.21087945352808</v>
       </c>
       <c r="N30" t="n">
-        <v>63.57163963271258</v>
+        <v>29.21087945352808</v>
       </c>
       <c r="O30" t="n">
-        <v>63.57163963271258</v>
+        <v>29.21087945352808</v>
       </c>
       <c r="P30" t="n">
-        <v>63.57163963271258</v>
+        <v>63.57163963271263</v>
       </c>
       <c r="Q30" t="n">
-        <v>63.57163963271258</v>
+        <v>63.57163963271263</v>
       </c>
       <c r="R30" t="n">
-        <v>63.57163963271258</v>
+        <v>63.57163963271263</v>
       </c>
       <c r="S30" t="n">
-        <v>63.57163963271258</v>
+        <v>63.57163963271263</v>
       </c>
       <c r="T30" t="n">
-        <v>63.57163963271258</v>
+        <v>63.57163963271263</v>
       </c>
       <c r="U30" t="n">
-        <v>63.19388002264104</v>
+        <v>63.19388002264107</v>
       </c>
       <c r="V30" t="n">
         <v>59.36180532475596</v>
       </c>
       <c r="W30" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352808</v>
       </c>
       <c r="X30" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352808</v>
       </c>
       <c r="Y30" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352808</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>48.72763466235244</v>
+        <v>29.21087945352808</v>
       </c>
       <c r="C31" t="n">
-        <v>48.72763466235244</v>
+        <v>29.21087945352808</v>
       </c>
       <c r="D31" t="n">
-        <v>48.72763466235244</v>
+        <v>29.21087945352808</v>
       </c>
       <c r="E31" t="n">
-        <v>48.72763466235244</v>
+        <v>29.21087945352808</v>
       </c>
       <c r="F31" t="n">
-        <v>48.72763466235244</v>
+        <v>29.21087945352808</v>
       </c>
       <c r="G31" t="n">
-        <v>48.72763466235244</v>
+        <v>29.21087945352808</v>
       </c>
       <c r="H31" t="n">
-        <v>48.72763466235244</v>
+        <v>29.21087945352808</v>
       </c>
       <c r="I31" t="n">
-        <v>98.4858863223679</v>
+        <v>29.21087945352808</v>
       </c>
       <c r="J31" t="n">
-        <v>98.4858863223679</v>
+        <v>38.0458266881537</v>
       </c>
       <c r="K31" t="n">
-        <v>98.4858863223679</v>
+        <v>38.0458266881537</v>
       </c>
       <c r="L31" t="n">
-        <v>98.4858863223679</v>
+        <v>38.0458266881537</v>
       </c>
       <c r="M31" t="n">
-        <v>98.4858863223679</v>
+        <v>38.0458266881537</v>
       </c>
       <c r="N31" t="n">
-        <v>98.4858863223679</v>
+        <v>143.8689892283178</v>
       </c>
       <c r="O31" t="n">
-        <v>98.4858863223679</v>
+        <v>143.8689892283178</v>
       </c>
       <c r="P31" t="n">
-        <v>98.4858863223679</v>
+        <v>143.8689892283178</v>
       </c>
       <c r="Q31" t="n">
-        <v>98.4858863223679</v>
+        <v>143.8689892283178</v>
       </c>
       <c r="R31" t="n">
-        <v>130.9645047495656</v>
+        <v>143.8689892283178</v>
       </c>
       <c r="S31" t="n">
-        <v>130.9645047495656</v>
+        <v>143.8689892283178</v>
       </c>
       <c r="T31" t="n">
-        <v>143.8689892283177</v>
+        <v>143.8689892283178</v>
       </c>
       <c r="U31" t="n">
-        <v>91.5435949533192</v>
+        <v>91.54359495331923</v>
       </c>
       <c r="V31" t="n">
         <v>83.20637452912337</v>
       </c>
       <c r="W31" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352808</v>
       </c>
       <c r="X31" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352808</v>
       </c>
       <c r="Y31" t="n">
-        <v>48.72763466235244</v>
+        <v>29.21087945352808</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>850.489667054254</v>
+        <v>850.4896670542532</v>
       </c>
       <c r="C32" t="n">
-        <v>735.9943838050795</v>
+        <v>735.9943838050788</v>
       </c>
       <c r="D32" t="n">
-        <v>634.0580275649468</v>
+        <v>634.0580275649461</v>
       </c>
       <c r="E32" t="n">
-        <v>498.0744466587445</v>
+        <v>498.074446658744</v>
       </c>
       <c r="F32" t="n">
-        <v>330.0501207238784</v>
+        <v>330.0501207238777</v>
       </c>
       <c r="G32" t="n">
-        <v>146.197926100147</v>
+        <v>146.1979261001474</v>
       </c>
       <c r="H32" t="n">
-        <v>34.60166673261167</v>
+        <v>34.60166673261161</v>
       </c>
       <c r="I32" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352808</v>
       </c>
       <c r="J32" t="n">
         <v>185.1069238584291</v>
       </c>
       <c r="K32" t="n">
-        <v>409.0717114822804</v>
+        <v>185.1069238584291</v>
       </c>
       <c r="L32" t="n">
-        <v>451.0236603255598</v>
+        <v>227.0367286590094</v>
       </c>
       <c r="M32" t="n">
-        <v>472.6693001477045</v>
+        <v>537.0542904874761</v>
       </c>
       <c r="N32" t="n">
-        <v>777.0665956392641</v>
+        <v>777.0665956392627</v>
       </c>
       <c r="O32" t="n">
-        <v>1040.658525062574</v>
+        <v>1040.658525062573</v>
       </c>
       <c r="P32" t="n">
-        <v>1255.838279975419</v>
+        <v>1255.838279975417</v>
       </c>
       <c r="Q32" t="n">
-        <v>1398.231735798171</v>
+        <v>1398.23173579817</v>
       </c>
       <c r="R32" t="n">
-        <v>1437.878519026257</v>
+        <v>1437.878519026255</v>
       </c>
       <c r="S32" t="n">
-        <v>1446.431480922305</v>
+        <v>1446.431480922303</v>
       </c>
       <c r="T32" t="n">
-        <v>1460.543972676405</v>
+        <v>1460.543972676404</v>
       </c>
       <c r="U32" t="n">
-        <v>1447.111823320343</v>
+        <v>1447.111823320342</v>
       </c>
       <c r="V32" t="n">
-        <v>1362.238473174226</v>
+        <v>1362.238473174225</v>
       </c>
       <c r="W32" t="n">
-        <v>1260.17655715274</v>
+        <v>1260.176557152739</v>
       </c>
       <c r="X32" t="n">
         <v>1136.007317425255</v>
       </c>
       <c r="Y32" t="n">
-        <v>989.107923027322</v>
+        <v>989.1079230273212</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352808</v>
       </c>
       <c r="C33" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352808</v>
       </c>
       <c r="D33" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352808</v>
       </c>
       <c r="E33" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352808</v>
       </c>
       <c r="F33" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352808</v>
       </c>
       <c r="G33" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352808</v>
       </c>
       <c r="H33" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352808</v>
       </c>
       <c r="I33" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352808</v>
       </c>
       <c r="J33" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352808</v>
       </c>
       <c r="K33" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352808</v>
       </c>
       <c r="L33" t="n">
-        <v>63.57163963271266</v>
+        <v>29.21087945352808</v>
       </c>
       <c r="M33" t="n">
-        <v>63.57163963271266</v>
+        <v>29.21087945352808</v>
       </c>
       <c r="N33" t="n">
-        <v>63.57163963271266</v>
+        <v>63.57163963271255</v>
       </c>
       <c r="O33" t="n">
-        <v>63.57163963271266</v>
+        <v>63.57163963271255</v>
       </c>
       <c r="P33" t="n">
-        <v>63.57163963271266</v>
+        <v>63.57163963271255</v>
       </c>
       <c r="Q33" t="n">
-        <v>63.57163963271266</v>
+        <v>63.57163963271255</v>
       </c>
       <c r="R33" t="n">
-        <v>63.57163963271266</v>
+        <v>63.57163963271255</v>
       </c>
       <c r="S33" t="n">
-        <v>63.57163963271266</v>
+        <v>63.57163963271255</v>
       </c>
       <c r="T33" t="n">
-        <v>63.57163963271266</v>
+        <v>63.57163963271255</v>
       </c>
       <c r="U33" t="n">
-        <v>63.1938800226411</v>
+        <v>63.19388002264101</v>
       </c>
       <c r="V33" t="n">
-        <v>59.36180532475599</v>
+        <v>59.36180532475593</v>
       </c>
       <c r="W33" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352808</v>
       </c>
       <c r="X33" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352808</v>
       </c>
       <c r="Y33" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352808</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>29.21087945352811</v>
+        <v>87.85674329006073</v>
       </c>
       <c r="C34" t="n">
-        <v>29.21087945352811</v>
+        <v>87.85674329006073</v>
       </c>
       <c r="D34" t="n">
-        <v>29.21087945352811</v>
+        <v>87.85674329006073</v>
       </c>
       <c r="E34" t="n">
-        <v>29.21087945352811</v>
+        <v>87.85674329006073</v>
       </c>
       <c r="F34" t="n">
-        <v>29.21087945352811</v>
+        <v>87.85674329006073</v>
       </c>
       <c r="G34" t="n">
-        <v>29.21087945352811</v>
+        <v>87.85674329006073</v>
       </c>
       <c r="H34" t="n">
-        <v>29.21087945352811</v>
+        <v>87.85674329006073</v>
       </c>
       <c r="I34" t="n">
-        <v>29.21087945352811</v>
+        <v>87.85674329006073</v>
       </c>
       <c r="J34" t="n">
-        <v>29.21087945352811</v>
+        <v>87.85674329006073</v>
       </c>
       <c r="K34" t="n">
-        <v>29.21087945352811</v>
+        <v>87.85674329006073</v>
       </c>
       <c r="L34" t="n">
-        <v>29.21087945352811</v>
+        <v>87.85674329006073</v>
       </c>
       <c r="M34" t="n">
-        <v>29.21087945352811</v>
+        <v>87.85674329006073</v>
       </c>
       <c r="N34" t="n">
-        <v>143.8689892283178</v>
+        <v>87.85674329006073</v>
       </c>
       <c r="O34" t="n">
-        <v>143.8689892283178</v>
+        <v>87.85674329006073</v>
       </c>
       <c r="P34" t="n">
-        <v>143.8689892283178</v>
+        <v>87.85674329006073</v>
       </c>
       <c r="Q34" t="n">
-        <v>143.8689892283178</v>
+        <v>143.8689892283177</v>
       </c>
       <c r="R34" t="n">
-        <v>143.8689892283178</v>
+        <v>143.8689892283177</v>
       </c>
       <c r="S34" t="n">
-        <v>143.8689892283178</v>
+        <v>143.8689892283177</v>
       </c>
       <c r="T34" t="n">
-        <v>143.8689892283178</v>
+        <v>143.8689892283177</v>
       </c>
       <c r="U34" t="n">
-        <v>91.54359495331926</v>
+        <v>91.54359495331917</v>
       </c>
       <c r="V34" t="n">
-        <v>83.20637452912339</v>
+        <v>83.20637452912334</v>
       </c>
       <c r="W34" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352808</v>
       </c>
       <c r="X34" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352808</v>
       </c>
       <c r="Y34" t="n">
-        <v>29.21087945352811</v>
+        <v>29.21087945352808</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>761.1064616071312</v>
+        <v>761.1064616071308</v>
       </c>
       <c r="C35" t="n">
-        <v>660.0433277140183</v>
+        <v>660.0433277140179</v>
       </c>
       <c r="D35" t="n">
-        <v>571.5391208299475</v>
+        <v>571.539120829947</v>
       </c>
       <c r="E35" t="n">
-        <v>448.987689279807</v>
+        <v>448.9876892798065</v>
       </c>
       <c r="F35" t="n">
-        <v>294.3955127010022</v>
+        <v>294.3955127010021</v>
       </c>
       <c r="G35" t="n">
-        <v>123.9754674333325</v>
+        <v>123.9754674333324</v>
       </c>
       <c r="H35" t="n">
-        <v>25.81135742185824</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="I35" t="n">
-        <v>33.6926963935045</v>
+        <v>33.69269639350453</v>
       </c>
       <c r="J35" t="n">
-        <v>202.7535903822815</v>
+        <v>94.27472981709289</v>
       </c>
       <c r="K35" t="n">
-        <v>439.8832275900088</v>
+        <v>331.4043670248203</v>
       </c>
       <c r="L35" t="n">
-        <v>729.4644972693161</v>
+        <v>475.7458437491465</v>
       </c>
       <c r="M35" t="n">
-        <v>764.2749866753369</v>
+        <v>551.2767902827621</v>
       </c>
       <c r="N35" t="n">
-        <v>834.1856668720454</v>
+        <v>868.8389353581978</v>
       </c>
       <c r="O35" t="n">
-        <v>1110.942445879231</v>
+        <v>1002.574878643244</v>
       </c>
       <c r="P35" t="n">
-        <v>1169.407092864563</v>
+        <v>1230.919483139965</v>
       </c>
       <c r="Q35" t="n">
-        <v>1188.76108546305</v>
+        <v>1230.919483139965</v>
       </c>
       <c r="R35" t="n">
-        <v>1241.572718275011</v>
+        <v>1241.57271827501</v>
       </c>
       <c r="S35" t="n">
-        <v>1263.290529754935</v>
+        <v>1263.290529754934</v>
       </c>
       <c r="T35" t="n">
-        <v>1290.567871092912</v>
+        <v>1290.567871092911</v>
       </c>
       <c r="U35" t="n">
-        <v>1290.567871092912</v>
+        <v>1290.567871092911</v>
       </c>
       <c r="V35" t="n">
-        <v>1219.126670302857</v>
+        <v>1219.126670302856</v>
       </c>
       <c r="W35" t="n">
-        <v>1130.496903637433</v>
+        <v>1130.496903637432</v>
       </c>
       <c r="X35" t="n">
         <v>1019.759813266009</v>
       </c>
       <c r="Y35" t="n">
-        <v>886.2925682241375</v>
+        <v>886.2925682241371</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>25.81135742185824</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="C36" t="n">
-        <v>25.81135742185824</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="D36" t="n">
-        <v>25.81135742185824</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="E36" t="n">
-        <v>25.81135742185824</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="F36" t="n">
-        <v>25.81135742185824</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="G36" t="n">
-        <v>25.81135742185824</v>
+        <v>42.53013393702436</v>
       </c>
       <c r="H36" t="n">
-        <v>25.81135742185824</v>
+        <v>42.53013393702436</v>
       </c>
       <c r="I36" t="n">
-        <v>25.81135742185824</v>
+        <v>42.53013393702436</v>
       </c>
       <c r="J36" t="n">
-        <v>25.81135742185824</v>
+        <v>42.53013393702436</v>
       </c>
       <c r="K36" t="n">
-        <v>25.81135742185824</v>
+        <v>42.53013393702436</v>
       </c>
       <c r="L36" t="n">
-        <v>25.81135742185824</v>
+        <v>42.53013393702436</v>
       </c>
       <c r="M36" t="n">
-        <v>42.53013393702443</v>
+        <v>42.53013393702436</v>
       </c>
       <c r="N36" t="n">
-        <v>42.53013393702443</v>
+        <v>42.53013393702436</v>
       </c>
       <c r="O36" t="n">
-        <v>42.53013393702443</v>
+        <v>42.53013393702436</v>
       </c>
       <c r="P36" t="n">
-        <v>42.53013393702443</v>
+        <v>42.53013393702436</v>
       </c>
       <c r="Q36" t="n">
-        <v>42.53013393702443</v>
+        <v>42.53013393702436</v>
       </c>
       <c r="R36" t="n">
-        <v>42.53013393702443</v>
+        <v>42.53013393702436</v>
       </c>
       <c r="S36" t="n">
-        <v>42.53013393702443</v>
+        <v>42.53013393702436</v>
       </c>
       <c r="T36" t="n">
-        <v>42.53013393702443</v>
+        <v>42.53013393702436</v>
       </c>
       <c r="U36" t="n">
-        <v>42.53013393702443</v>
+        <v>42.53013393702436</v>
       </c>
       <c r="V36" t="n">
-        <v>42.53013393702443</v>
+        <v>42.53013393702436</v>
       </c>
       <c r="W36" t="n">
-        <v>25.81135742185824</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="X36" t="n">
-        <v>25.81135742185824</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="Y36" t="n">
-        <v>25.81135742185824</v>
+        <v>25.81135742185822</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>25.81135742185824</v>
+        <v>97.62207084226695</v>
       </c>
       <c r="C37" t="n">
-        <v>25.81135742185824</v>
+        <v>97.62207084226695</v>
       </c>
       <c r="D37" t="n">
-        <v>25.81135742185824</v>
+        <v>97.62207084226695</v>
       </c>
       <c r="E37" t="n">
-        <v>25.81135742185824</v>
+        <v>97.62207084226695</v>
       </c>
       <c r="F37" t="n">
-        <v>25.81135742185824</v>
+        <v>97.62207084226695</v>
       </c>
       <c r="G37" t="n">
-        <v>25.81135742185824</v>
+        <v>97.62207084226695</v>
       </c>
       <c r="H37" t="n">
-        <v>25.81135742185824</v>
+        <v>105.2679480603286</v>
       </c>
       <c r="I37" t="n">
-        <v>25.81135742185824</v>
+        <v>105.2679480603286</v>
       </c>
       <c r="J37" t="n">
-        <v>25.81135742185824</v>
+        <v>105.2679480603286</v>
       </c>
       <c r="K37" t="n">
-        <v>105.2679480603287</v>
+        <v>105.2679480603286</v>
       </c>
       <c r="L37" t="n">
-        <v>105.2679480603287</v>
+        <v>105.2679480603286</v>
       </c>
       <c r="M37" t="n">
-        <v>105.2679480603287</v>
+        <v>105.2679480603286</v>
       </c>
       <c r="N37" t="n">
-        <v>105.2679480603287</v>
+        <v>105.2679480603286</v>
       </c>
       <c r="O37" t="n">
-        <v>105.2679480603287</v>
+        <v>105.2679480603286</v>
       </c>
       <c r="P37" t="n">
-        <v>105.2679480603287</v>
+        <v>105.2679480603286</v>
       </c>
       <c r="Q37" t="n">
-        <v>105.2679480603287</v>
+        <v>105.2679480603286</v>
       </c>
       <c r="R37" t="n">
-        <v>105.2679480603287</v>
+        <v>105.2679480603286</v>
       </c>
       <c r="S37" t="n">
-        <v>105.2679480603287</v>
+        <v>105.2679480603286</v>
       </c>
       <c r="T37" t="n">
-        <v>105.2679480603287</v>
+        <v>105.2679480603286</v>
       </c>
       <c r="U37" t="n">
-        <v>66.37470314139185</v>
+        <v>66.37470314139176</v>
       </c>
       <c r="V37" t="n">
-        <v>66.37470314139185</v>
+        <v>66.37470314139176</v>
       </c>
       <c r="W37" t="n">
-        <v>25.81135742185824</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="X37" t="n">
-        <v>25.81135742185824</v>
+        <v>25.81135742185822</v>
       </c>
       <c r="Y37" t="n">
-        <v>25.81135742185824</v>
+        <v>25.81135742185822</v>
       </c>
     </row>
     <row r="38">
@@ -7151,49 +7151,49 @@
         <v>761.106461607131</v>
       </c>
       <c r="C38" t="n">
-        <v>660.0433277140182</v>
+        <v>660.043327714018</v>
       </c>
       <c r="D38" t="n">
-        <v>571.5391208299475</v>
+        <v>571.5391208299471</v>
       </c>
       <c r="E38" t="n">
-        <v>448.987689279807</v>
+        <v>448.9876892798067</v>
       </c>
       <c r="F38" t="n">
-        <v>294.3955127010025</v>
+        <v>294.3955127010022</v>
       </c>
       <c r="G38" t="n">
-        <v>123.9754674333325</v>
+        <v>123.9754674333324</v>
       </c>
       <c r="H38" t="n">
         <v>25.81135742185823</v>
       </c>
       <c r="I38" t="n">
-        <v>25.81135742185823</v>
+        <v>33.69269639350455</v>
       </c>
       <c r="J38" t="n">
-        <v>187.3712169518506</v>
+        <v>202.7535903822816</v>
       </c>
       <c r="K38" t="n">
-        <v>424.500854159578</v>
+        <v>439.883227590009</v>
       </c>
       <c r="L38" t="n">
-        <v>714.0821238388853</v>
+        <v>729.4644972693164</v>
       </c>
       <c r="M38" t="n">
-        <v>714.0821238388853</v>
+        <v>1048.880045364812</v>
       </c>
       <c r="N38" t="n">
-        <v>1031.644268914321</v>
+        <v>1118.790725561521</v>
       </c>
       <c r="O38" t="n">
-        <v>1064.11011563783</v>
+        <v>1151.25657228503</v>
       </c>
       <c r="P38" t="n">
-        <v>1086.014412868382</v>
+        <v>1188.761085463049</v>
       </c>
       <c r="Q38" t="n">
-        <v>1241.57271827501</v>
+        <v>1188.761085463049</v>
       </c>
       <c r="R38" t="n">
         <v>1241.57271827501</v>
@@ -7217,7 +7217,7 @@
         <v>1019.759813266009</v>
       </c>
       <c r="Y38" t="n">
-        <v>886.2925682241371</v>
+        <v>886.2925682241373</v>
       </c>
     </row>
     <row r="39">
@@ -7251,43 +7251,43 @@
         <v>25.81135742185823</v>
       </c>
       <c r="J39" t="n">
-        <v>25.81135742185823</v>
+        <v>42.53013393702437</v>
       </c>
       <c r="K39" t="n">
-        <v>25.81135742185823</v>
+        <v>42.53013393702437</v>
       </c>
       <c r="L39" t="n">
-        <v>25.81135742185823</v>
+        <v>42.53013393702437</v>
       </c>
       <c r="M39" t="n">
-        <v>42.5301339370244</v>
+        <v>42.53013393702437</v>
       </c>
       <c r="N39" t="n">
-        <v>42.5301339370244</v>
+        <v>42.53013393702437</v>
       </c>
       <c r="O39" t="n">
-        <v>42.5301339370244</v>
+        <v>42.53013393702437</v>
       </c>
       <c r="P39" t="n">
-        <v>42.5301339370244</v>
+        <v>42.53013393702437</v>
       </c>
       <c r="Q39" t="n">
-        <v>42.5301339370244</v>
+        <v>42.53013393702437</v>
       </c>
       <c r="R39" t="n">
-        <v>42.5301339370244</v>
+        <v>42.53013393702437</v>
       </c>
       <c r="S39" t="n">
-        <v>42.5301339370244</v>
+        <v>42.53013393702437</v>
       </c>
       <c r="T39" t="n">
-        <v>42.5301339370244</v>
+        <v>42.53013393702437</v>
       </c>
       <c r="U39" t="n">
-        <v>42.5301339370244</v>
+        <v>42.53013393702437</v>
       </c>
       <c r="V39" t="n">
-        <v>42.5301339370244</v>
+        <v>42.53013393702437</v>
       </c>
       <c r="W39" t="n">
         <v>25.81135742185823</v>
@@ -7324,28 +7324,28 @@
         <v>25.81135742185823</v>
       </c>
       <c r="H40" t="n">
-        <v>25.81135742185823</v>
+        <v>105.2679480603286</v>
       </c>
       <c r="I40" t="n">
-        <v>25.81135742185823</v>
+        <v>105.2679480603286</v>
       </c>
       <c r="J40" t="n">
-        <v>25.81135742185823</v>
+        <v>105.2679480603286</v>
       </c>
       <c r="K40" t="n">
-        <v>25.81135742185823</v>
+        <v>105.2679480603286</v>
       </c>
       <c r="L40" t="n">
-        <v>25.81135742185823</v>
+        <v>105.2679480603286</v>
       </c>
       <c r="M40" t="n">
-        <v>25.81135742185823</v>
+        <v>105.2679480603286</v>
       </c>
       <c r="N40" t="n">
-        <v>25.81135742185823</v>
+        <v>105.2679480603286</v>
       </c>
       <c r="O40" t="n">
-        <v>25.81135742185823</v>
+        <v>105.2679480603286</v>
       </c>
       <c r="P40" t="n">
         <v>105.2679480603286</v>
@@ -7363,10 +7363,10 @@
         <v>105.2679480603286</v>
       </c>
       <c r="U40" t="n">
-        <v>66.37470314139181</v>
+        <v>66.37470314139178</v>
       </c>
       <c r="V40" t="n">
-        <v>66.37470314139181</v>
+        <v>66.37470314139178</v>
       </c>
       <c r="W40" t="n">
         <v>25.81135742185823</v>
@@ -7409,28 +7409,28 @@
         <v>33.69269639350458</v>
       </c>
       <c r="J41" t="n">
-        <v>94.27472981709295</v>
+        <v>202.7535903822817</v>
       </c>
       <c r="K41" t="n">
-        <v>94.27472981709295</v>
+        <v>439.8832275900091</v>
       </c>
       <c r="L41" t="n">
-        <v>383.8559994964004</v>
+        <v>439.8832275900091</v>
       </c>
       <c r="M41" t="n">
-        <v>418.6664889024213</v>
+        <v>636.5534268408632</v>
       </c>
       <c r="N41" t="n">
-        <v>528.101396552514</v>
+        <v>706.4641070375717</v>
       </c>
       <c r="O41" t="n">
-        <v>804.8581755596999</v>
+        <v>983.2208860447577</v>
       </c>
       <c r="P41" t="n">
-        <v>1033.202780056421</v>
+        <v>1211.565490541479</v>
       </c>
       <c r="Q41" t="n">
-        <v>1188.76108546305</v>
+        <v>1230.919483139965</v>
       </c>
       <c r="R41" t="n">
         <v>1241.572718275011</v>
@@ -7464,61 +7464,61 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>29.73552654697935</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="C42" t="n">
-        <v>29.73552654697935</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="D42" t="n">
-        <v>29.73552654697935</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="E42" t="n">
-        <v>29.73552654697935</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="F42" t="n">
-        <v>29.73552654697935</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="G42" t="n">
-        <v>29.73552654697935</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="H42" t="n">
-        <v>29.73552654697935</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="I42" t="n">
-        <v>29.73552654697935</v>
+        <v>42.53013393702435</v>
       </c>
       <c r="J42" t="n">
-        <v>29.73552654697935</v>
+        <v>42.53013393702435</v>
       </c>
       <c r="K42" t="n">
-        <v>29.73552654697935</v>
+        <v>42.53013393702435</v>
       </c>
       <c r="L42" t="n">
-        <v>29.73552654697935</v>
+        <v>42.53013393702435</v>
       </c>
       <c r="M42" t="n">
-        <v>29.73552654697935</v>
+        <v>42.53013393702435</v>
       </c>
       <c r="N42" t="n">
-        <v>29.73552654697935</v>
+        <v>42.53013393702435</v>
       </c>
       <c r="O42" t="n">
-        <v>29.73552654697935</v>
+        <v>42.53013393702435</v>
       </c>
       <c r="P42" t="n">
-        <v>29.73552654697935</v>
+        <v>42.53013393702435</v>
       </c>
       <c r="Q42" t="n">
-        <v>29.73552654697935</v>
+        <v>42.53013393702435</v>
       </c>
       <c r="R42" t="n">
-        <v>29.73552654697935</v>
+        <v>42.53013393702435</v>
       </c>
       <c r="S42" t="n">
-        <v>29.73552654697935</v>
+        <v>42.53013393702435</v>
       </c>
       <c r="T42" t="n">
-        <v>29.73552654697935</v>
+        <v>42.53013393702435</v>
       </c>
       <c r="U42" t="n">
         <v>42.53013393702435</v>
@@ -7533,7 +7533,7 @@
         <v>25.81135742185823</v>
       </c>
       <c r="Y42" t="n">
-        <v>29.73552654697935</v>
+        <v>25.81135742185823</v>
       </c>
     </row>
     <row r="43">
@@ -7549,34 +7549,34 @@
         <v>25.81135742185823</v>
       </c>
       <c r="D43" t="n">
-        <v>25.81135742185823</v>
+        <v>105.2679480603285</v>
       </c>
       <c r="E43" t="n">
-        <v>25.81135742185823</v>
+        <v>105.2679480603285</v>
       </c>
       <c r="F43" t="n">
-        <v>25.81135742185823</v>
+        <v>105.2679480603285</v>
       </c>
       <c r="G43" t="n">
-        <v>25.81135742185823</v>
+        <v>105.2679480603285</v>
       </c>
       <c r="H43" t="n">
-        <v>25.81135742185823</v>
+        <v>105.2679480603285</v>
       </c>
       <c r="I43" t="n">
-        <v>25.81135742185823</v>
+        <v>105.2679480603285</v>
       </c>
       <c r="J43" t="n">
-        <v>25.81135742185823</v>
+        <v>105.2679480603285</v>
       </c>
       <c r="K43" t="n">
-        <v>25.81135742185823</v>
+        <v>105.2679480603285</v>
       </c>
       <c r="L43" t="n">
-        <v>25.81135742185823</v>
+        <v>105.2679480603285</v>
       </c>
       <c r="M43" t="n">
-        <v>25.81135742185823</v>
+        <v>105.2679480603285</v>
       </c>
       <c r="N43" t="n">
         <v>105.2679480603285</v>
@@ -7646,31 +7646,31 @@
         <v>33.69269639350449</v>
       </c>
       <c r="J44" t="n">
-        <v>202.7535903822815</v>
+        <v>94.27472981709278</v>
       </c>
       <c r="K44" t="n">
-        <v>231.9374625173552</v>
+        <v>331.4043670248201</v>
       </c>
       <c r="L44" t="n">
-        <v>231.9374625173552</v>
+        <v>375.4369565607277</v>
       </c>
       <c r="M44" t="n">
-        <v>551.3530106128509</v>
+        <v>694.8525046562233</v>
       </c>
       <c r="N44" t="n">
-        <v>621.2636908095594</v>
+        <v>1012.414649731659</v>
       </c>
       <c r="O44" t="n">
-        <v>898.0204698167453</v>
+        <v>1230.732997389338</v>
       </c>
       <c r="P44" t="n">
-        <v>1033.202780056421</v>
+        <v>1252.637294619889</v>
       </c>
       <c r="Q44" t="n">
-        <v>1188.76108546305</v>
+        <v>1252.637294619889</v>
       </c>
       <c r="R44" t="n">
-        <v>1241.572718275011</v>
+        <v>1263.290529754935</v>
       </c>
       <c r="S44" t="n">
         <v>1263.290529754935</v>
@@ -7701,52 +7701,52 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>42.53013393702443</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="C45" t="n">
-        <v>42.53013393702443</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="D45" t="n">
-        <v>42.53013393702443</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="E45" t="n">
-        <v>42.53013393702443</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="F45" t="n">
-        <v>42.53013393702443</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="G45" t="n">
-        <v>42.53013393702443</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="H45" t="n">
-        <v>42.53013393702443</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="I45" t="n">
-        <v>42.53013393702443</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="J45" t="n">
-        <v>42.53013393702443</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="K45" t="n">
-        <v>42.53013393702443</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="L45" t="n">
-        <v>42.53013393702443</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="M45" t="n">
-        <v>42.53013393702443</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="N45" t="n">
-        <v>42.53013393702443</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="O45" t="n">
-        <v>42.53013393702443</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="P45" t="n">
-        <v>42.53013393702443</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="Q45" t="n">
-        <v>42.53013393702443</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="R45" t="n">
         <v>42.53013393702443</v>
@@ -7767,10 +7767,10 @@
         <v>25.81135742185823</v>
       </c>
       <c r="X45" t="n">
-        <v>42.53013393702443</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="Y45" t="n">
-        <v>42.53013393702443</v>
+        <v>25.81135742185823</v>
       </c>
     </row>
     <row r="46">
@@ -7804,28 +7804,28 @@
         <v>25.81135742185823</v>
       </c>
       <c r="J46" t="n">
-        <v>25.81135742185823</v>
+        <v>59.62448004925501</v>
       </c>
       <c r="K46" t="n">
-        <v>105.2679480603287</v>
+        <v>59.62448004925501</v>
       </c>
       <c r="L46" t="n">
-        <v>105.2679480603287</v>
+        <v>59.62448004925501</v>
       </c>
       <c r="M46" t="n">
-        <v>105.2679480603287</v>
+        <v>59.62448004925501</v>
       </c>
       <c r="N46" t="n">
-        <v>105.2679480603287</v>
+        <v>59.62448004925501</v>
       </c>
       <c r="O46" t="n">
-        <v>105.2679480603287</v>
+        <v>59.62448004925501</v>
       </c>
       <c r="P46" t="n">
-        <v>105.2679480603287</v>
+        <v>59.62448004925501</v>
       </c>
       <c r="Q46" t="n">
-        <v>105.2679480603287</v>
+        <v>59.62448004925501</v>
       </c>
       <c r="R46" t="n">
         <v>105.2679480603287</v>
@@ -8693,25 +8693,25 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>45.34896727216717</v>
+        <v>87.37140359350238</v>
       </c>
       <c r="M11" t="n">
-        <v>214.9908843158649</v>
+        <v>32.04872274174443</v>
       </c>
       <c r="N11" t="n">
-        <v>212.7839583354218</v>
+        <v>246.7390859325151</v>
       </c>
       <c r="O11" t="n">
-        <v>217.3592102577956</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>45.08528049474413</v>
+        <v>2.591255098870739</v>
       </c>
       <c r="Q11" t="n">
-        <v>47.6613457796578</v>
+        <v>5.167320383784407</v>
       </c>
       <c r="R11" t="n">
-        <v>42.58424007769262</v>
+        <v>13.95596428625035</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,28 +8763,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>135.6762311797751</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>125.3490926623394</v>
       </c>
       <c r="M12" t="n">
-        <v>122.422560448506</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>107.9066134679088</v>
       </c>
       <c r="O12" t="n">
         <v>126.09543989585</v>
       </c>
       <c r="P12" t="n">
-        <v>10.50592105421787</v>
+        <v>125.0272939704079</v>
       </c>
       <c r="Q12" t="n">
         <v>136.1300824528302</v>
@@ -8845,28 +8845,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>111.3378805152112</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8927,28 +8927,28 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L14" t="n">
-        <v>270.6444670286918</v>
+        <v>228.2911288462874</v>
       </c>
       <c r="M14" t="n">
-        <v>32.04872274174424</v>
+        <v>6.949345319991821</v>
       </c>
       <c r="N14" t="n">
-        <v>255.277983731295</v>
+        <v>255.2779837312949</v>
       </c>
       <c r="O14" t="n">
-        <v>217.3592102577954</v>
+        <v>246.758517458259</v>
       </c>
       <c r="P14" t="n">
-        <v>208.5255628951208</v>
+        <v>2.591255098870391</v>
       </c>
       <c r="Q14" t="n">
-        <v>5.167320383784102</v>
+        <v>47.66134577965738</v>
       </c>
       <c r="R14" t="n">
-        <v>13.9559642862501</v>
+        <v>25.95562157859812</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9091,7 +9091,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>110.5070132461836</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -9103,7 +9103,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9875,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>96.29967352301433</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L26" t="n">
         <v>270.6444670286918</v>
@@ -9893,10 +9893,10 @@
         <v>208.5255628951208</v>
       </c>
       <c r="Q26" t="n">
-        <v>137.5801139476182</v>
+        <v>114.87616386405</v>
       </c>
       <c r="R26" t="n">
-        <v>42.58424007769262</v>
+        <v>2.536984291748013</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,31 +9948,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J27" t="n">
         <v>81.70699090058493</v>
       </c>
       <c r="K27" t="n">
-        <v>135.6762311797751</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>125.3490926623394</v>
       </c>
       <c r="M27" t="n">
         <v>122.422560448506</v>
       </c>
       <c r="N27" t="n">
-        <v>123.0721995077161</v>
+        <v>142.6144520327413</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>125.0272939704079</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R27" t="n">
         <v>29.49804203773589</v>
@@ -10036,13 +10036,13 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L28" t="n">
-        <v>105.2836065989273</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>115.6742602693208</v>
       </c>
       <c r="N28" t="n">
-        <v>111.3378805152112</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K29" t="n">
-        <v>210.0462273461148</v>
+        <v>62.61559892099206</v>
       </c>
       <c r="L29" t="n">
         <v>270.6444670286918</v>
@@ -10121,10 +10121,10 @@
         <v>291.2847697033555</v>
       </c>
       <c r="N29" t="n">
-        <v>215.0674642530522</v>
+        <v>283.4008070189657</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>246.758517458259</v>
       </c>
       <c r="P29" t="n">
         <v>208.5255628951208</v>
@@ -10191,28 +10191,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>135.6762311797751</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>125.3490926623394</v>
       </c>
       <c r="M30" t="n">
-        <v>122.422560448506</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>107.9066134679088</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>126.09543989585</v>
       </c>
       <c r="P30" t="n">
-        <v>125.0272939704079</v>
+        <v>159.7351325352408</v>
       </c>
       <c r="Q30" t="n">
         <v>136.1300824528302</v>
       </c>
       <c r="R30" t="n">
-        <v>29.49804203773589</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10270,7 +10270,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L31" t="n">
         <v>105.2836065989273</v>
@@ -10279,13 +10279,13 @@
         <v>115.6742602693208</v>
       </c>
       <c r="N31" t="n">
-        <v>111.3378805152112</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>36.01282323492504</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -10352,10 +10352,10 @@
         <v>210.0462273461148</v>
       </c>
       <c r="L32" t="n">
-        <v>86.40222066302977</v>
+        <v>270.6444670286918</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>291.2847697033555</v>
       </c>
       <c r="N32" t="n">
         <v>283.4008070189657</v>
@@ -10428,25 +10428,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K33" t="n">
-        <v>135.6762311797751</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>160.0569312271722</v>
+        <v>94.06716401643169</v>
       </c>
       <c r="M33" t="n">
-        <v>122.422560448506</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>107.9066134679088</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>126.09543989585</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>125.0272939704079</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>136.1300824528302</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>29.49804203773589</v>
@@ -10522,10 +10522,10 @@
         <v>105.6509998050918</v>
       </c>
       <c r="P34" t="n">
-        <v>87.48425302749862</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>42.34223702878295</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>109.5746066315038</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>210.0462273461148</v>
@@ -10592,22 +10592,22 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>291.2847697033555</v>
       </c>
       <c r="N35" t="n">
         <v>283.4008070189657</v>
       </c>
       <c r="O35" t="n">
-        <v>246.758517458259</v>
+        <v>102.2930268298347</v>
       </c>
       <c r="P35" t="n">
-        <v>36.92964621694996</v>
+        <v>208.5255628951208</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>42.58424007769262</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,13 +10662,13 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K36" t="n">
-        <v>135.6762311797751</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>105.0805285637654</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,13 +10677,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>126.09543989585</v>
       </c>
       <c r="P36" t="n">
-        <v>125.0272939704079</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>136.1300824528302</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>29.49804203773589</v>
@@ -10741,7 +10741,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>21.79628437712472</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -10750,13 +10750,13 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>115.6742602693208</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>111.3378805152112</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P37" t="n">
         <v>87.48425302749862</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>101.9978041478829</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K38" t="n">
         <v>210.0462273461148</v>
@@ -10829,7 +10829,7 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M38" t="n">
-        <v>214.9908843158649</v>
+        <v>287.4798572620957</v>
       </c>
       <c r="N38" t="n">
         <v>283.4008070189657</v>
@@ -10838,13 +10838,13 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>118.6326857859395</v>
       </c>
       <c r="Q38" t="n">
         <v>137.5801139476182</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,10 +10902,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>17.3239542108728</v>
+        <v>135.6762311797751</v>
       </c>
       <c r="L39" t="n">
-        <v>125.3490926623394</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10914,10 +10914,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>126.09543989585</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>125.0272939704079</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -10978,13 +10978,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>21.79628437712472</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>69.16996059133484</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>105.2836065989273</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>115.6742602693208</v>
@@ -10993,13 +10993,13 @@
         <v>111.3378805152112</v>
       </c>
       <c r="O40" t="n">
-        <v>105.6509998050918</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>42.34223702878295</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11057,19 +11057,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L41" t="n">
-        <v>270.6444670286918</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>163.4946564089224</v>
       </c>
       <c r="N41" t="n">
-        <v>73.17127426609399</v>
+        <v>283.4008070189657</v>
       </c>
       <c r="O41" t="n">
         <v>246.758517458259</v>
@@ -11078,10 +11078,10 @@
         <v>208.5255628951208</v>
       </c>
       <c r="Q41" t="n">
-        <v>137.5801139476182</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>42.58424007769262</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,10 +11133,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>6.561484152283033</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>81.70699090058493</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>135.6762311797751</v>
@@ -11148,19 +11148,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>107.9066134679088</v>
+        <v>3.128963170855393</v>
       </c>
       <c r="O42" t="n">
         <v>126.09543989585</v>
       </c>
       <c r="P42" t="n">
-        <v>125.0272939704079</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>136.1300824528302</v>
       </c>
       <c r="R42" t="n">
-        <v>29.49804203773589</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11215,25 +11215,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>21.79628437712472</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>69.16996059133484</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>105.2836065989273</v>
       </c>
       <c r="M43" t="n">
-        <v>16.25470360884816</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N43" t="n">
-        <v>111.3378805152112</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>105.6509998050918</v>
       </c>
       <c r="P43" t="n">
-        <v>87.48425302749862</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -11294,13 +11294,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>109.5746066315038</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L44" t="n">
-        <v>228.2911288462876</v>
+        <v>22.61549718687396</v>
       </c>
       <c r="M44" t="n">
         <v>287.4798572620958</v>
@@ -11312,13 +11312,13 @@
         <v>246.758517458259</v>
       </c>
       <c r="P44" t="n">
-        <v>114.4222353627518</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>137.5801139476182</v>
       </c>
       <c r="R44" t="n">
-        <v>42.58424007769262</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,10 +11376,10 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>135.6762311797751</v>
       </c>
       <c r="L45" t="n">
-        <v>22.8412477470254</v>
+        <v>125.3490926623394</v>
       </c>
       <c r="M45" t="n">
         <v>122.422560448506</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>125.0272939704079</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>29.49804203773589</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11455,10 +11455,10 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -11467,7 +11467,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>106.157028011966</v>
+        <v>148.6510534078396</v>
       </c>
       <c r="C11" t="n">
-        <v>124.769310411185</v>
+        <v>82.27528501531179</v>
       </c>
       <c r="D11" t="n">
-        <v>112.3359726722335</v>
+        <v>69.84194727636026</v>
       </c>
       <c r="E11" t="n">
-        <v>103.5486996957689</v>
+        <v>108.6139875229567</v>
       </c>
       <c r="F11" t="n">
         <v>177.7630626700197</v>
       </c>
       <c r="G11" t="n">
-        <v>193.4326526719962</v>
+        <v>193.4326526719963</v>
       </c>
       <c r="H11" t="n">
-        <v>79.4052513724893</v>
+        <v>79.40525137248956</v>
       </c>
       <c r="I11" t="n">
-        <v>4.04392968911336</v>
+        <v>16.75585940079495</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,16 +23312,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>24.71680785700329</v>
       </c>
       <c r="V11" t="n">
-        <v>95.44359663915819</v>
+        <v>95.44359663915824</v>
       </c>
       <c r="W11" t="n">
         <v>112.4602768557731</v>
       </c>
       <c r="X11" t="n">
-        <v>134.3465273247123</v>
+        <v>134.3465273247124</v>
       </c>
       <c r="Y11" t="n">
         <v>156.8493804484561</v>
@@ -23470,13 +23470,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>20.7270949308773</v>
+        <v>20.72709493087755</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>22.38049472346805</v>
+        <v>22.3804947234683</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>148.6510534078394</v>
+        <v>106.1570280119661</v>
       </c>
       <c r="C14" t="n">
         <v>124.7693104111849</v>
@@ -23501,16 +23501,16 @@
         <v>112.3359726722333</v>
       </c>
       <c r="E14" t="n">
-        <v>103.5486996957688</v>
+        <v>103.548699695769</v>
       </c>
       <c r="F14" t="n">
         <v>177.7630626700195</v>
       </c>
       <c r="G14" t="n">
-        <v>150.9386272761226</v>
+        <v>193.4326526719961</v>
       </c>
       <c r="H14" t="n">
-        <v>121.8992767683626</v>
+        <v>84.47053919967749</v>
       </c>
       <c r="I14" t="n">
         <v>16.75585940079473</v>
@@ -23549,19 +23549,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>24.71680785700312</v>
       </c>
       <c r="V14" t="n">
-        <v>52.94957124328462</v>
+        <v>95.44359663915807</v>
       </c>
       <c r="W14" t="n">
-        <v>99.74834714409073</v>
+        <v>112.4602768557729</v>
       </c>
       <c r="X14" t="n">
         <v>134.3465273247122</v>
       </c>
       <c r="Y14" t="n">
-        <v>156.8493804484559</v>
+        <v>114.3553550525827</v>
       </c>
     </row>
     <row r="15">
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>20.72709493087718</v>
+        <v>20.72709493087737</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>22.38049472346793</v>
+        <v>22.38049472346813</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>36.19077655206644</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23738,16 +23738,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>8.340913692308906</v>
+        <v>33.36291523003097</v>
       </c>
       <c r="F17" t="n">
-        <v>22.80876041837314</v>
+        <v>22.80876041837333</v>
       </c>
       <c r="G17" t="n">
-        <v>38.47835042034967</v>
+        <v>80.97237581622313</v>
       </c>
       <c r="H17" t="n">
-        <v>9.438999912589679</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23795,10 +23795,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>21.88625046893924</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.89507819680955</v>
+        <v>1.895078196809742</v>
       </c>
     </row>
     <row r="18">
@@ -23975,13 +23975,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>33.58244823586926</v>
+        <v>11.47666476109174</v>
       </c>
       <c r="F20" t="n">
-        <v>22.80876041837314</v>
+        <v>65.30278581424659</v>
       </c>
       <c r="G20" t="n">
-        <v>80.75284281038441</v>
+        <v>38.47835042034988</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24032,10 +24032,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>21.88625046893924</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.89507819680955</v>
+        <v>1.895078196809742</v>
       </c>
     </row>
     <row r="21">
@@ -24218,7 +24218,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.571109639633505</v>
+        <v>3.571109639633653</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1134446.344378731</v>
+        <v>1134446.344378732</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1134446.344378732</v>
+        <v>1134446.344378731</v>
       </c>
     </row>
     <row r="9">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>396869.3978294068</v>
+      </c>
+      <c r="C2" t="n">
         <v>396869.3978294069</v>
-      </c>
-      <c r="C2" t="n">
-        <v>396869.3978294068</v>
       </c>
       <c r="D2" t="n">
         <v>396869.3978294068</v>
       </c>
       <c r="E2" t="n">
-        <v>347039.8802573343</v>
+        <v>347039.8802573342</v>
       </c>
       <c r="F2" t="n">
         <v>347039.8802573343</v>
       </c>
       <c r="G2" t="n">
-        <v>392692.9653618689</v>
+        <v>392692.9653618688</v>
       </c>
       <c r="H2" t="n">
         <v>392692.9653618688</v>
@@ -26335,16 +26335,16 @@
         <v>397545.4298390497</v>
       </c>
       <c r="J2" t="n">
+        <v>397673.3469863415</v>
+      </c>
+      <c r="K2" t="n">
+        <v>397673.3469863416</v>
+      </c>
+      <c r="L2" t="n">
+        <v>397673.3469863413</v>
+      </c>
+      <c r="M2" t="n">
         <v>397673.3469863414</v>
-      </c>
-      <c r="K2" t="n">
-        <v>397673.3469863413</v>
-      </c>
-      <c r="L2" t="n">
-        <v>397673.3469863416</v>
-      </c>
-      <c r="M2" t="n">
-        <v>397673.3469863413</v>
       </c>
       <c r="N2" t="n">
         <v>397673.3469863414</v>
@@ -26353,7 +26353,7 @@
         <v>397673.3469863413</v>
       </c>
       <c r="P2" t="n">
-        <v>397673.3469863415</v>
+        <v>397673.3469863413</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>268189.4957533074</v>
+        <v>268189.4957533073</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>1.364242052659392e-10</v>
       </c>
       <c r="G3" t="n">
         <v>89968.22148461836</v>
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>9282.568375648816</v>
+        <v>9282.56837564884</v>
       </c>
       <c r="J3" t="n">
         <v>174799.9769962071</v>
@@ -26393,10 +26393,10 @@
         <v>4.547473508864641e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>89968.22148461833</v>
+        <v>89968.22148461838</v>
       </c>
       <c r="M3" t="n">
-        <v>10638.26229000085</v>
+        <v>10638.26229000088</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26433,7 +26433,7 @@
         <v>465631.4922360425</v>
       </c>
       <c r="H4" t="n">
-        <v>465631.4922360425</v>
+        <v>465631.4922360424</v>
       </c>
       <c r="I4" t="n">
         <v>471927.6879885277</v>
@@ -26445,7 +26445,7 @@
         <v>482258.3294266119</v>
       </c>
       <c r="L4" t="n">
-        <v>482258.3294266119</v>
+        <v>482258.3294266118</v>
       </c>
       <c r="M4" t="n">
         <v>480027.6217719744</v>
@@ -26454,7 +26454,7 @@
         <v>480027.6217719744</v>
       </c>
       <c r="O4" t="n">
-        <v>480027.6217719744</v>
+        <v>480027.6217719745</v>
       </c>
       <c r="P4" t="n">
         <v>480027.6217719744</v>
@@ -26476,31 +26476,31 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>23575.06998390377</v>
+        <v>23575.06998390376</v>
       </c>
       <c r="F5" t="n">
-        <v>23575.06998390379</v>
+        <v>23575.06998390378</v>
       </c>
       <c r="G5" t="n">
-        <v>33029.49299889176</v>
+        <v>33029.49299889174</v>
       </c>
       <c r="H5" t="n">
-        <v>33029.49299889176</v>
+        <v>33029.49299889174</v>
       </c>
       <c r="I5" t="n">
-        <v>35151.8532383593</v>
+        <v>35151.85323835929</v>
       </c>
       <c r="J5" t="n">
-        <v>44151.68385367384</v>
+        <v>44151.68385367382</v>
       </c>
       <c r="K5" t="n">
-        <v>44151.68385367384</v>
+        <v>44151.68385367381</v>
       </c>
       <c r="L5" t="n">
-        <v>44151.68385367383</v>
+        <v>44151.68385367381</v>
       </c>
       <c r="M5" t="n">
-        <v>42685.98220017733</v>
+        <v>42685.98220017732</v>
       </c>
       <c r="N5" t="n">
         <v>42685.98220017733</v>
@@ -26519,37 +26519,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-140135.9479074729</v>
+        <v>-140140.4142916782</v>
       </c>
       <c r="C6" t="n">
-        <v>-140135.947907473</v>
+        <v>-140140.4142916781</v>
       </c>
       <c r="D6" t="n">
-        <v>-140135.947907473</v>
+        <v>-140140.4142916782</v>
       </c>
       <c r="E6" t="n">
-        <v>-357001.6849109199</v>
+        <v>-357282.9819483032</v>
       </c>
       <c r="F6" t="n">
-        <v>-88812.18915761245</v>
+        <v>-89093.48619499587</v>
       </c>
       <c r="G6" t="n">
-        <v>-195936.2413576837</v>
+        <v>-195963.9101444863</v>
       </c>
       <c r="H6" t="n">
-        <v>-105968.0198730654</v>
+        <v>-105995.688659868</v>
       </c>
       <c r="I6" t="n">
-        <v>-118816.6797634861</v>
+        <v>-118817.3904143044</v>
       </c>
       <c r="J6" t="n">
-        <v>-303536.6432901515</v>
+        <v>-303536.6432901513</v>
       </c>
       <c r="K6" t="n">
-        <v>-128736.6662939444</v>
+        <v>-128736.6662939442</v>
       </c>
       <c r="L6" t="n">
-        <v>-218704.8877785624</v>
+        <v>-218704.8877785627</v>
       </c>
       <c r="M6" t="n">
         <v>-135678.5192758112</v>
@@ -26561,7 +26561,7 @@
         <v>-224556.1690727888</v>
       </c>
       <c r="P6" t="n">
-        <v>-125040.2569858102</v>
+        <v>-125040.2569858104</v>
       </c>
     </row>
   </sheetData>
@@ -26707,7 +26707,7 @@
         <v>337.8964638257669</v>
       </c>
       <c r="J2" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="K2" t="n">
         <v>236.855166964496</v>
@@ -26796,31 +26796,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>42.49402539587345</v>
+        <v>42.49402539587326</v>
       </c>
       <c r="F4" t="n">
-        <v>42.49402539587345</v>
+        <v>42.49402539587326</v>
       </c>
       <c r="G4" t="n">
-        <v>42.49402539587345</v>
+        <v>42.49402539587326</v>
       </c>
       <c r="H4" t="n">
-        <v>42.49402539587345</v>
+        <v>42.49402539587326</v>
       </c>
       <c r="I4" t="n">
-        <v>77.40126617658959</v>
+        <v>77.40126617658949</v>
       </c>
       <c r="J4" t="n">
-        <v>365.1359931691014</v>
+        <v>365.135993169101</v>
       </c>
       <c r="K4" t="n">
-        <v>365.1359931691014</v>
+        <v>365.135993169101</v>
       </c>
       <c r="L4" t="n">
-        <v>365.1359931691014</v>
+        <v>365.135993169101</v>
       </c>
       <c r="M4" t="n">
-        <v>322.641967773228</v>
+        <v>322.6419677732277</v>
       </c>
       <c r="N4" t="n">
         <v>322.6419677732279</v>
@@ -26917,7 +26917,7 @@
         <v>225.4361869699938</v>
       </c>
       <c r="F2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="G2" t="n">
         <v>112.4602768557729</v>
@@ -26935,10 +26935,10 @@
         <v>5.684341886080801e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>112.4602768557729</v>
+        <v>112.460276855773</v>
       </c>
       <c r="M2" t="n">
-        <v>13.29782786250107</v>
+        <v>13.29782786250109</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>42.49402539587345</v>
+        <v>42.49402539587326</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>34.90724078071614</v>
+        <v>34.90724078071623</v>
       </c>
       <c r="J4" t="n">
-        <v>287.7347269925118</v>
+        <v>287.7347269925115</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>225.4361869699938</v>
       </c>
       <c r="K2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="L2" t="n">
         <v>112.4602768557729</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>42.49402539587345</v>
+        <v>42.49402539587326</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28111,22 +28111,22 @@
         <v>225.4361869699938</v>
       </c>
       <c r="J11" t="n">
-        <v>196.3459900919699</v>
+        <v>225.4361869699938</v>
       </c>
       <c r="K11" t="n">
         <v>225.4361869699938</v>
       </c>
       <c r="L11" t="n">
+        <v>183.4137506486584</v>
+      </c>
+      <c r="M11" t="n">
         <v>225.4361869699938</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>225.4361869699938</v>
       </c>
       <c r="P11" t="n">
         <v>225.4361869699938</v>
@@ -28172,7 +28172,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D12" t="n">
-        <v>186.3386228721133</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E12" t="n">
         <v>171.8275718397997</v>
@@ -28184,40 +28184,40 @@
         <v>148.761012594616</v>
       </c>
       <c r="H12" t="n">
-        <v>168.3880178773325</v>
+        <v>125.8939924814591</v>
       </c>
       <c r="I12" t="n">
-        <v>114.4898231888801</v>
+        <v>107.9283390365971</v>
       </c>
       <c r="J12" t="n">
-        <v>135.7323687962717</v>
+        <v>54.02537789568677</v>
       </c>
       <c r="K12" t="n">
-        <v>135.6762311797751</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>125.3490926623394</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>122.422560448506</v>
       </c>
       <c r="N12" t="n">
-        <v>107.9066134679088</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>114.52137291619</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>8.963937997691364</v>
       </c>
       <c r="R12" t="n">
-        <v>165.2365855749133</v>
+        <v>201.3562967485873</v>
       </c>
       <c r="S12" t="n">
-        <v>191.8955649522593</v>
+        <v>225.4361869699938</v>
       </c>
       <c r="T12" t="n">
         <v>215.0370598435168</v>
@@ -28248,7 +28248,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C13" t="n">
-        <v>208.9512063678458</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D13" t="n">
         <v>145.1826502507107</v>
@@ -28257,7 +28257,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F13" t="n">
-        <v>138.9268822184467</v>
+        <v>181.4209076143199</v>
       </c>
       <c r="G13" t="n">
         <v>168.7145309437669</v>
@@ -28269,31 +28269,31 @@
         <v>165.2666490039705</v>
       </c>
       <c r="J13" t="n">
-        <v>143.0084423346753</v>
+        <v>145.1646447552805</v>
       </c>
       <c r="K13" t="n">
-        <v>137.7981397517309</v>
+        <v>68.62817916039604</v>
       </c>
       <c r="L13" t="n">
-        <v>139.4805673535853</v>
+        <v>34.19696075465806</v>
       </c>
       <c r="M13" t="n">
-        <v>143.0474437998775</v>
+        <v>27.37318353055668</v>
       </c>
       <c r="N13" t="n">
-        <v>129.9630835905929</v>
+        <v>61.1192284712549</v>
       </c>
       <c r="O13" t="n">
-        <v>152.4171983302814</v>
+        <v>39.42323441888101</v>
       </c>
       <c r="P13" t="n">
-        <v>190.1206050057904</v>
+        <v>60.14232658241831</v>
       </c>
       <c r="Q13" t="n">
-        <v>170.7111018018876</v>
+        <v>128.3688647731046</v>
       </c>
       <c r="R13" t="n">
-        <v>225.4361869699938</v>
+        <v>204.0484816844984</v>
       </c>
       <c r="S13" t="n">
         <v>225.4361869699938</v>
@@ -28311,10 +28311,10 @@
         <v>225.4361869699938</v>
       </c>
       <c r="X13" t="n">
+        <v>221.9194554082425</v>
+      </c>
+      <c r="Y13" t="n">
         <v>225.4361869699938</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="14">
@@ -28351,10 +28351,10 @@
         <v>225.4361869699939</v>
       </c>
       <c r="K14" t="n">
-        <v>224.9742658834118</v>
+        <v>10.62810875858546</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1406872134689579</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>225.4361869699939</v>
@@ -28366,13 +28366,13 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>19.50187917374356</v>
+        <v>225.4361869699939</v>
       </c>
       <c r="Q14" t="n">
         <v>225.4361869699939</v>
       </c>
       <c r="R14" t="n">
-        <v>225.4361869699939</v>
+        <v>213.4365296776459</v>
       </c>
       <c r="S14" t="n">
         <v>225.4361869699939</v>
@@ -28403,7 +28403,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>176.7504943976657</v>
+        <v>193.5176750667232</v>
       </c>
       <c r="C15" t="n">
         <v>187.5181515243659</v>
@@ -28415,10 +28415,10 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
-        <v>158.8234391199283</v>
+        <v>201.3174645158016</v>
       </c>
       <c r="G15" t="n">
-        <v>191.2550379904895</v>
+        <v>148.761012594616</v>
       </c>
       <c r="H15" t="n">
         <v>125.893992481459</v>
@@ -28448,7 +28448,7 @@
         <v>125.0272939704078</v>
       </c>
       <c r="Q15" t="n">
-        <v>172.2603282460559</v>
+        <v>145.0940204505215</v>
       </c>
       <c r="R15" t="n">
         <v>165.2365855749132</v>
@@ -28457,7 +28457,7 @@
         <v>191.8955649522593</v>
       </c>
       <c r="T15" t="n">
-        <v>215.0370598435168</v>
+        <v>225.4361869699939</v>
       </c>
       <c r="U15" t="n">
         <v>225.4361869699939</v>
@@ -28485,7 +28485,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C16" t="n">
-        <v>166.4571809719723</v>
+        <v>208.9512063678456</v>
       </c>
       <c r="D16" t="n">
         <v>145.1826502507107</v>
@@ -28494,7 +28494,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F16" t="n">
-        <v>148.1707250741878</v>
+        <v>181.4209076143199</v>
       </c>
       <c r="G16" t="n">
         <v>168.7145309437669</v>
@@ -28506,7 +28506,7 @@
         <v>165.2666490039705</v>
       </c>
       <c r="J16" t="n">
-        <v>185.5024677305487</v>
+        <v>143.0084423346752</v>
       </c>
       <c r="K16" t="n">
         <v>137.7981397517308</v>
@@ -28515,28 +28515,28 @@
         <v>139.4805673535853</v>
       </c>
       <c r="M16" t="n">
-        <v>32.54043055369378</v>
+        <v>143.0474437998774</v>
       </c>
       <c r="N16" t="n">
         <v>129.9630835905928</v>
       </c>
       <c r="O16" t="n">
-        <v>145.0742342239728</v>
+        <v>177.3216351775278</v>
       </c>
       <c r="P16" t="n">
         <v>147.6265796099169</v>
       </c>
       <c r="Q16" t="n">
-        <v>213.205127197761</v>
+        <v>128.3688647731046</v>
       </c>
       <c r="R16" t="n">
-        <v>225.4361869699939</v>
+        <v>204.0484816844983</v>
       </c>
       <c r="S16" t="n">
         <v>225.4361869699939</v>
       </c>
       <c r="T16" t="n">
-        <v>225.4361869699939</v>
+        <v>223.8203341576757</v>
       </c>
       <c r="U16" t="n">
         <v>225.4361869699939</v>
@@ -28582,19 +28582,19 @@
         <v>337.8964638257669</v>
       </c>
       <c r="I17" t="n">
-        <v>284.6860717666622</v>
+        <v>282.9691414476368</v>
       </c>
       <c r="J17" t="n">
         <v>188.9590216718574</v>
       </c>
       <c r="K17" t="n">
-        <v>220.6743361047004</v>
+        <v>263.1683615005737</v>
       </c>
       <c r="L17" t="n">
         <v>228.2911288462876</v>
       </c>
       <c r="M17" t="n">
-        <v>257.4849097117384</v>
+        <v>214.9908843158649</v>
       </c>
       <c r="N17" t="n">
         <v>212.7839583354218</v>
@@ -28603,10 +28603,10 @@
         <v>217.3592102577956</v>
       </c>
       <c r="P17" t="n">
-        <v>228.0274420688645</v>
+        <v>270.5214674647378</v>
       </c>
       <c r="Q17" t="n">
-        <v>254.3639222140116</v>
+        <v>230.6035073537782</v>
       </c>
       <c r="R17" t="n">
         <v>239.3921512562441</v>
@@ -28615,13 +28615,13 @@
         <v>228.2158115139423</v>
       </c>
       <c r="T17" t="n">
-        <v>222.6001247886366</v>
+        <v>265.0941501845099</v>
       </c>
       <c r="U17" t="n">
-        <v>292.6470202228705</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="V17" t="n">
-        <v>337.8964638257669</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W17" t="n">
         <v>337.8964638257669</v>
@@ -28819,10 +28819,10 @@
         <v>337.8964638257669</v>
       </c>
       <c r="I20" t="n">
-        <v>284.6860717666622</v>
+        <v>284.686071766662</v>
       </c>
       <c r="J20" t="n">
-        <v>229.7361167487057</v>
+        <v>231.4530470677306</v>
       </c>
       <c r="K20" t="n">
         <v>220.6743361047004</v>
@@ -28831,7 +28831,7 @@
         <v>228.2911288462876</v>
       </c>
       <c r="M20" t="n">
-        <v>257.4849097117384</v>
+        <v>214.9908843158649</v>
       </c>
       <c r="N20" t="n">
         <v>212.7839583354218</v>
@@ -28846,13 +28846,13 @@
         <v>230.6035073537782</v>
       </c>
       <c r="R20" t="n">
-        <v>281.8861766521176</v>
+        <v>239.3921512562441</v>
       </c>
       <c r="S20" t="n">
-        <v>228.2158115139423</v>
+        <v>270.7098369098156</v>
       </c>
       <c r="T20" t="n">
-        <v>222.6001247886366</v>
+        <v>263.3772198654847</v>
       </c>
       <c r="U20" t="n">
         <v>250.1529948269971</v>
@@ -29056,10 +29056,10 @@
         <v>337.8964638257669</v>
       </c>
       <c r="I23" t="n">
-        <v>242.1920463707887</v>
+        <v>319.5933125473782</v>
       </c>
       <c r="J23" t="n">
-        <v>188.9590216718574</v>
+        <v>266.3602878484469</v>
       </c>
       <c r="K23" t="n">
         <v>220.6743361047004</v>
@@ -29080,19 +29080,19 @@
         <v>228.0274420688645</v>
       </c>
       <c r="Q23" t="n">
-        <v>230.6035073537782</v>
+        <v>287.86076942783</v>
       </c>
       <c r="R23" t="n">
-        <v>296.6494133302961</v>
+        <v>239.3921512562441</v>
       </c>
       <c r="S23" t="n">
-        <v>305.6170776905319</v>
+        <v>228.2158115139423</v>
       </c>
       <c r="T23" t="n">
-        <v>300.0013909652262</v>
+        <v>222.6001247886366</v>
       </c>
       <c r="U23" t="n">
-        <v>327.5542610035867</v>
+        <v>327.5542610035866</v>
       </c>
       <c r="V23" t="n">
         <v>337.8964638257669</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="C26" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="D26" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="E26" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="F26" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="G26" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="H26" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="I26" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="J26" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="K26" t="n">
-        <v>124.374662581686</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="L26" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="M26" t="n">
-        <v>44.53926285395673</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="N26" t="n">
-        <v>236.855166964496</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>236.855166964496</v>
+        <v>117.9185774820533</v>
       </c>
       <c r="P26" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="Q26" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="R26" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="S26" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="T26" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="U26" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="V26" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="W26" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="X26" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="Y26" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644961</v>
       </c>
     </row>
     <row r="27">
@@ -29372,16 +29372,16 @@
         <v>125.8939924814591</v>
       </c>
       <c r="I27" t="n">
-        <v>114.4898231888801</v>
+        <v>107.9283390365971</v>
       </c>
       <c r="J27" t="n">
         <v>54.02537789568677</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>135.6762311797751</v>
       </c>
       <c r="L27" t="n">
-        <v>125.3490926623394</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -29393,10 +29393,10 @@
         <v>126.09543989585</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>125.0272939704079</v>
       </c>
       <c r="Q27" t="n">
-        <v>145.0940204505216</v>
+        <v>8.963937997691364</v>
       </c>
       <c r="R27" t="n">
         <v>135.7385435371774</v>
@@ -29408,16 +29408,16 @@
         <v>215.0370598435168</v>
       </c>
       <c r="U27" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="V27" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="W27" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="X27" t="n">
-        <v>236.855166964496</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y27" t="n">
         <v>223.3842861340256</v>
@@ -29451,7 +29451,7 @@
         <v>165.9467011478387</v>
       </c>
       <c r="I28" t="n">
-        <v>236.855166964496</v>
+        <v>165.2666490039705</v>
       </c>
       <c r="J28" t="n">
         <v>121.2121579575505</v>
@@ -29460,16 +29460,16 @@
         <v>68.62817916039604</v>
       </c>
       <c r="L28" t="n">
-        <v>34.19696075465806</v>
+        <v>139.4805673535853</v>
       </c>
       <c r="M28" t="n">
         <v>27.37318353055668</v>
       </c>
       <c r="N28" t="n">
-        <v>18.62520307538163</v>
+        <v>153.9984233498569</v>
       </c>
       <c r="O28" t="n">
-        <v>145.0742342239729</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="P28" t="n">
         <v>60.14232658241831</v>
@@ -29478,22 +29478,22 @@
         <v>128.3688647731046</v>
       </c>
       <c r="R28" t="n">
-        <v>235.24140341694</v>
+        <v>204.0484816844984</v>
       </c>
       <c r="S28" t="n">
         <v>235.6777742193615</v>
       </c>
       <c r="T28" t="n">
-        <v>236.855166964496</v>
+        <v>223.8203341576757</v>
       </c>
       <c r="U28" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="V28" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="W28" t="n">
-        <v>236.855166964496</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="X28" t="n">
         <v>221.9194554082425</v>
@@ -29536,7 +29536,7 @@
         <v>236.855166964496</v>
       </c>
       <c r="K29" t="n">
-        <v>167.6612317990511</v>
+        <v>236.855166964496</v>
       </c>
       <c r="L29" t="n">
         <v>236.855166964496</v>
@@ -29545,7 +29545,7 @@
         <v>236.855166964496</v>
       </c>
       <c r="N29" t="n">
-        <v>236.855166964496</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>236.855166964496</v>
@@ -29603,7 +29603,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>183.4688511594488</v>
+        <v>148.761012594616</v>
       </c>
       <c r="H30" t="n">
         <v>125.8939924814591</v>
@@ -29615,16 +29615,16 @@
         <v>135.7323687962717</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>135.6762311797751</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>122.422560448506</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>107.9066134679088</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -29636,7 +29636,7 @@
         <v>8.963937997691364</v>
       </c>
       <c r="R30" t="n">
-        <v>135.7385435371774</v>
+        <v>165.2365855749133</v>
       </c>
       <c r="S30" t="n">
         <v>191.8955649522593</v>
@@ -29688,13 +29688,13 @@
         <v>165.9467011478387</v>
       </c>
       <c r="I31" t="n">
-        <v>215.5275092666124</v>
+        <v>165.2666490039705</v>
       </c>
       <c r="J31" t="n">
-        <v>143.0084423346753</v>
+        <v>151.9326314605597</v>
       </c>
       <c r="K31" t="n">
-        <v>137.7981397517309</v>
+        <v>68.62817916039604</v>
       </c>
       <c r="L31" t="n">
         <v>34.19696075465806</v>
@@ -29703,25 +29703,25 @@
         <v>27.37318353055668</v>
       </c>
       <c r="N31" t="n">
-        <v>18.62520307538163</v>
+        <v>236.855166964496</v>
       </c>
       <c r="O31" t="n">
-        <v>145.0742342239729</v>
+        <v>109.0614109890478</v>
       </c>
       <c r="P31" t="n">
-        <v>147.6265796099169</v>
+        <v>60.14232658241831</v>
       </c>
       <c r="Q31" t="n">
         <v>170.7111018018876</v>
       </c>
       <c r="R31" t="n">
-        <v>236.855166964496</v>
+        <v>204.0484816844984</v>
       </c>
       <c r="S31" t="n">
         <v>235.6777742193615</v>
       </c>
       <c r="T31" t="n">
-        <v>236.855166964496</v>
+        <v>223.8203341576757</v>
       </c>
       <c r="U31" t="n">
         <v>236.855166964496</v>
@@ -29736,7 +29736,7 @@
         <v>221.9194554082425</v>
       </c>
       <c r="Y31" t="n">
-        <v>236.855166964496</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="32">
@@ -29773,16 +29773,16 @@
         <v>236.855166964496</v>
       </c>
       <c r="K32" t="n">
-        <v>236.855166964496</v>
+        <v>10.62810875858561</v>
       </c>
       <c r="L32" t="n">
-        <v>184.2646140855602</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>236.855166964496</v>
       </c>
       <c r="N32" t="n">
-        <v>236.855166964496</v>
+        <v>171.8198231869475</v>
       </c>
       <c r="O32" t="n">
         <v>236.855166964496</v>
@@ -29852,25 +29852,25 @@
         <v>54.02537789568677</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>135.6762311797751</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>31.28192864590767</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>122.422560448506</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>142.6144520327416</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>126.09543989585</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>125.0272939704079</v>
       </c>
       <c r="Q33" t="n">
-        <v>8.963937997691364</v>
+        <v>145.0940204505216</v>
       </c>
       <c r="R33" t="n">
         <v>135.7385435371774</v>
@@ -29904,7 +29904,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>177.6169206649681</v>
+        <v>236.855166964496</v>
       </c>
       <c r="C34" t="n">
         <v>166.4571809719723</v>
@@ -29940,16 +29940,16 @@
         <v>27.37318353055668</v>
       </c>
       <c r="N34" t="n">
-        <v>134.4414755751692</v>
+        <v>18.62520307538163</v>
       </c>
       <c r="O34" t="n">
         <v>39.42323441888101</v>
       </c>
       <c r="P34" t="n">
-        <v>60.14232658241831</v>
+        <v>147.6265796099169</v>
       </c>
       <c r="Q34" t="n">
-        <v>128.3688647731046</v>
+        <v>227.2891280021472</v>
       </c>
       <c r="R34" t="n">
         <v>204.0484816844984</v>
@@ -30013,13 +30013,13 @@
         <v>250.1529948269971</v>
       </c>
       <c r="L35" t="n">
+        <v>103.4461332563091</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
         <v>250.1529948269971</v>
-      </c>
-      <c r="M35" t="n">
-        <v>250.1529948269971</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>250.1529948269971</v>
@@ -30028,7 +30028,7 @@
         <v>250.1529948269971</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.1529948269971</v>
+        <v>230.6035073537782</v>
       </c>
       <c r="R35" t="n">
         <v>250.1529948269971</v>
@@ -30077,7 +30077,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>148.761012594616</v>
+        <v>165.6486656402384</v>
       </c>
       <c r="H36" t="n">
         <v>125.8939924814591</v>
@@ -30086,28 +30086,28 @@
         <v>107.9283390365971</v>
       </c>
       <c r="J36" t="n">
-        <v>135.7323687962717</v>
+        <v>54.02537789568677</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>135.6762311797751</v>
       </c>
       <c r="L36" t="n">
-        <v>20.26856409857398</v>
+        <v>125.3490926623394</v>
       </c>
       <c r="M36" t="n">
-        <v>139.3102134941284</v>
+        <v>122.422560448506</v>
       </c>
       <c r="N36" t="n">
         <v>107.9066134679088</v>
       </c>
       <c r="O36" t="n">
-        <v>126.09543989585</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>125.0272939704079</v>
       </c>
       <c r="Q36" t="n">
-        <v>8.963937997691364</v>
+        <v>145.0940204505216</v>
       </c>
       <c r="R36" t="n">
         <v>135.7385435371774</v>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>177.6169206649681</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="C37" t="n">
         <v>166.4571809719723</v>
@@ -30159,28 +30159,28 @@
         <v>168.7145309437669</v>
       </c>
       <c r="H37" t="n">
-        <v>165.9467011478387</v>
+        <v>173.6698094489111</v>
       </c>
       <c r="I37" t="n">
         <v>165.2666490039705</v>
       </c>
       <c r="J37" t="n">
-        <v>121.2121579575505</v>
+        <v>143.0084423346753</v>
       </c>
       <c r="K37" t="n">
-        <v>218.0573222148324</v>
+        <v>137.7981397517309</v>
       </c>
       <c r="L37" t="n">
         <v>139.4805673535853</v>
       </c>
       <c r="M37" t="n">
-        <v>27.37318353055668</v>
+        <v>143.0474437998775</v>
       </c>
       <c r="N37" t="n">
         <v>18.62520307538163</v>
       </c>
       <c r="O37" t="n">
-        <v>145.0742342239729</v>
+        <v>39.42323441888101</v>
       </c>
       <c r="P37" t="n">
         <v>60.14232658241831</v>
@@ -30241,7 +30241,7 @@
         <v>250.1529948269971</v>
       </c>
       <c r="I38" t="n">
-        <v>242.1920463707887</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="J38" t="n">
         <v>250.1529948269971</v>
@@ -30253,22 +30253,22 @@
         <v>250.1529948269971</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="N38" t="n">
-        <v>250.1529948269971</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>250.1529948269971</v>
       </c>
       <c r="P38" t="n">
+        <v>147.2781029273889</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>93.02339340615995</v>
+      </c>
+      <c r="R38" t="n">
         <v>250.1529948269971</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>250.1529948269971</v>
-      </c>
-      <c r="R38" t="n">
-        <v>239.3921512562441</v>
       </c>
       <c r="S38" t="n">
         <v>250.1529948269971</v>
@@ -30323,25 +30323,25 @@
         <v>114.4898231888801</v>
       </c>
       <c r="J39" t="n">
-        <v>135.7323687962717</v>
+        <v>152.6200218418941</v>
       </c>
       <c r="K39" t="n">
-        <v>118.3522769689023</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>125.3490926623394</v>
       </c>
       <c r="M39" t="n">
-        <v>139.3102134941284</v>
+        <v>122.422560448506</v>
       </c>
       <c r="N39" t="n">
         <v>107.9066134679088</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>126.09543989585</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>125.0272939704079</v>
       </c>
       <c r="Q39" t="n">
         <v>145.0940204505216</v>
@@ -30396,19 +30396,19 @@
         <v>168.7145309437669</v>
       </c>
       <c r="H40" t="n">
-        <v>165.9467011478387</v>
+        <v>246.2058836109401</v>
       </c>
       <c r="I40" t="n">
         <v>165.2666490039705</v>
       </c>
       <c r="J40" t="n">
-        <v>121.2121579575505</v>
+        <v>143.0084423346753</v>
       </c>
       <c r="K40" t="n">
-        <v>68.62817916039604</v>
+        <v>137.7981397517309</v>
       </c>
       <c r="L40" t="n">
-        <v>34.19696075465806</v>
+        <v>139.4805673535853</v>
       </c>
       <c r="M40" t="n">
         <v>27.37318353055668</v>
@@ -30417,13 +30417,13 @@
         <v>18.62520307538163</v>
       </c>
       <c r="O40" t="n">
-        <v>39.42323441888101</v>
+        <v>145.0742342239729</v>
       </c>
       <c r="P40" t="n">
-        <v>227.8857620730184</v>
+        <v>147.6265796099169</v>
       </c>
       <c r="Q40" t="n">
-        <v>128.3688647731046</v>
+        <v>170.7111018018876</v>
       </c>
       <c r="R40" t="n">
         <v>204.0484816844984</v>
@@ -30484,16 +30484,16 @@
         <v>250.1529948269971</v>
       </c>
       <c r="K41" t="n">
-        <v>220.6743361047004</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="L41" t="n">
-        <v>250.1529948269971</v>
+        <v>228.2911288462876</v>
       </c>
       <c r="M41" t="n">
         <v>250.1529948269971</v>
       </c>
       <c r="N41" t="n">
-        <v>250.1529948269971</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>250.1529948269971</v>
@@ -30557,10 +30557,10 @@
         <v>125.8939924814591</v>
       </c>
       <c r="I42" t="n">
-        <v>107.9283390365971</v>
+        <v>131.3774762345024</v>
       </c>
       <c r="J42" t="n">
-        <v>54.02537789568677</v>
+        <v>135.7323687962717</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30572,19 +30572,19 @@
         <v>122.422560448506</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>104.7776502970534</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>125.0272939704079</v>
       </c>
       <c r="Q42" t="n">
         <v>8.963937997691364</v>
       </c>
       <c r="R42" t="n">
-        <v>135.7385435371774</v>
+        <v>165.2365855749133</v>
       </c>
       <c r="S42" t="n">
         <v>191.8955649522593</v>
@@ -30593,7 +30593,7 @@
         <v>215.0370598435168</v>
       </c>
       <c r="U42" t="n">
-        <v>250.1529948269971</v>
+        <v>237.2291489784668</v>
       </c>
       <c r="V42" t="n">
         <v>240.6489209154022</v>
@@ -30605,7 +30605,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>227.3480933311177</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -30621,7 +30621,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D43" t="n">
-        <v>145.1826502507107</v>
+        <v>225.441832713812</v>
       </c>
       <c r="E43" t="n">
         <v>141.676141212225</v>
@@ -30639,25 +30639,25 @@
         <v>165.2666490039705</v>
       </c>
       <c r="J43" t="n">
-        <v>121.2121579575505</v>
+        <v>143.0084423346753</v>
       </c>
       <c r="K43" t="n">
-        <v>68.62817916039604</v>
+        <v>137.7981397517309</v>
       </c>
       <c r="L43" t="n">
         <v>34.19696075465806</v>
       </c>
       <c r="M43" t="n">
-        <v>126.7927401910293</v>
+        <v>27.37318353055668</v>
       </c>
       <c r="N43" t="n">
-        <v>98.88438553848295</v>
+        <v>129.9630835905929</v>
       </c>
       <c r="O43" t="n">
         <v>39.42323441888101</v>
       </c>
       <c r="P43" t="n">
-        <v>60.14232658241831</v>
+        <v>147.6265796099169</v>
       </c>
       <c r="Q43" t="n">
         <v>170.7111018018876</v>
@@ -30724,28 +30724,28 @@
         <v>250.1529948269971</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="M44" t="n">
         <v>250.1529948269971</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="O44" t="n">
-        <v>250.1529948269971</v>
+        <v>191.1242762921417</v>
       </c>
       <c r="P44" t="n">
         <v>250.1529948269971</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.1529948269971</v>
+        <v>93.02339340615995</v>
       </c>
       <c r="R44" t="n">
         <v>250.1529948269971</v>
       </c>
       <c r="S44" t="n">
-        <v>250.1529948269971</v>
+        <v>228.2158115139423</v>
       </c>
       <c r="T44" t="n">
         <v>250.1529948269971</v>
@@ -30800,10 +30800,10 @@
         <v>135.7323687962717</v>
       </c>
       <c r="K45" t="n">
-        <v>135.6762311797751</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>102.507844915314</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -30815,13 +30815,13 @@
         <v>126.09543989585</v>
       </c>
       <c r="P45" t="n">
-        <v>125.0272939704079</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>145.0940204505216</v>
       </c>
       <c r="R45" t="n">
-        <v>135.7385435371774</v>
+        <v>182.1242386205357</v>
       </c>
       <c r="S45" t="n">
         <v>191.8955649522593</v>
@@ -30839,7 +30839,7 @@
         <v>250.1529948269971</v>
       </c>
       <c r="X45" t="n">
-        <v>234.200567485093</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
         <v>223.3842861340256</v>
@@ -30876,13 +30876,13 @@
         <v>165.2666490039705</v>
       </c>
       <c r="J46" t="n">
-        <v>143.0084423346753</v>
+        <v>177.1631116552781</v>
       </c>
       <c r="K46" t="n">
-        <v>218.0573222148324</v>
+        <v>68.62817916039604</v>
       </c>
       <c r="L46" t="n">
-        <v>139.4805673535853</v>
+        <v>34.19696075465806</v>
       </c>
       <c r="M46" t="n">
         <v>143.0474437998775</v>
@@ -30891,7 +30891,7 @@
         <v>129.9630835905929</v>
       </c>
       <c r="O46" t="n">
-        <v>145.0742342239729</v>
+        <v>39.42323441888101</v>
       </c>
       <c r="P46" t="n">
         <v>147.6265796099169</v>
@@ -30900,7 +30900,7 @@
         <v>170.7111018018876</v>
       </c>
       <c r="R46" t="n">
-        <v>204.0484816844984</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="S46" t="n">
         <v>235.6777742193615</v>
@@ -35407,37 +35407,37 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>7.386968420112495</v>
+        <v>36.4771652981364</v>
       </c>
       <c r="K11" t="n">
-        <v>4.761850865293454</v>
+        <v>4.761850865293397</v>
       </c>
       <c r="L11" t="n">
-        <v>42.49402539587345</v>
+        <v>42.49402539587326</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>42.49402539587326</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>33.95512759709331</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>8.076976712198224</v>
       </c>
       <c r="P11" t="n">
-        <v>42.49402539587345</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>42.49402539587345</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>28.62827579144232</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>2.836062181357216</v>
+        <v>2.836062181357159</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -35468,7 +35468,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>27.16630779553477</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -35480,7 +35480,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>42.49402539587345</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -35510,10 +35510,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>36.11971117367398</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>33.54062201773441</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -35544,7 +35544,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>42.49402539587345</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -35553,7 +35553,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>42.49402539587326</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>23.95248679772999</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -35577,19 +35577,19 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>42.49402539587326</v>
       </c>
       <c r="O13" t="n">
-        <v>7.342964106308499</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>42.49402539587345</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.38770528549545</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35607,10 +35607,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>3.5167315617513</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>8.294914155825353</v>
       </c>
     </row>
     <row r="14">
@@ -35647,25 +35647,25 @@
         <v>36.47716529813667</v>
       </c>
       <c r="K14" t="n">
-        <v>4.299929778711604</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>42.49402539587345</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>42.49402539587345</v>
+        <v>17.39464797412103</v>
       </c>
       <c r="N14" t="n">
-        <v>42.49402539587345</v>
+        <v>42.49402539587326</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>29.39930720046363</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>42.49402539587326</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35699,7 +35699,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>16.76718066905748</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -35711,10 +35711,10 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>42.49402539587326</v>
       </c>
       <c r="G15" t="n">
-        <v>42.49402539587345</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -35744,7 +35744,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>27.16630779553443</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35753,7 +35753,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>10.39912712647713</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -35781,7 +35781,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>42.49402539587326</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -35790,7 +35790,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>9.24384285574113</v>
+        <v>42.49402539587326</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>42.49402539587345</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -35817,22 +35817,22 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>32.24740095355498</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>42.49402539587345</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.38770528549559</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>1.615852812318286</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -35878,19 +35878,19 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>42.49402539587345</v>
+        <v>40.77709507684807</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>42.49402539587326</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>42.49402539587345</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -35899,10 +35899,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>42.49402539587326</v>
       </c>
       <c r="Q17" t="n">
-        <v>23.76041486023339</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35911,13 +35911,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>42.49402539587326</v>
       </c>
       <c r="U17" t="n">
-        <v>42.49402539587345</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>17.01668021661487</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -36115,10 +36115,10 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>42.49402539587345</v>
+        <v>42.49402539587326</v>
       </c>
       <c r="J20" t="n">
-        <v>40.77709507684827</v>
+        <v>42.49402539587326</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>42.49402539587345</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -36142,13 +36142,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>42.49402539587345</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>42.49402539587326</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>40.77709507684807</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -36352,10 +36352,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>77.40126617658949</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>77.40126617658949</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -36376,19 +36376,19 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>57.25726207405179</v>
       </c>
       <c r="R23" t="n">
-        <v>57.25726207405192</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>77.40126617658959</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>77.40126617658959</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>77.40126617658959</v>
+        <v>77.40126617658949</v>
       </c>
       <c r="V23" t="n">
         <v>17.01668021661487</v>
@@ -36592,37 +36592,37 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>47.89614529263865</v>
+        <v>47.89614529263874</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>226.2270582059105</v>
       </c>
       <c r="L26" t="n">
-        <v>279.2085051469003</v>
+        <v>279.2085051469004</v>
       </c>
       <c r="M26" t="n">
-        <v>120.8331482414473</v>
+        <v>313.1490523519867</v>
       </c>
       <c r="N26" t="n">
-        <v>307.47201564804</v>
+        <v>70.61684868354396</v>
       </c>
       <c r="O26" t="n">
-        <v>266.2544741649594</v>
+        <v>147.3178846825167</v>
       </c>
       <c r="P26" t="n">
-        <v>217.3532877907523</v>
+        <v>217.3532877907524</v>
       </c>
       <c r="Q26" t="n">
-        <v>143.8317735583361</v>
+        <v>121.1278234747679</v>
       </c>
       <c r="R26" t="n">
-        <v>40.04725578594451</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>8.639355450553712</v>
+        <v>8.639355450553797</v>
       </c>
       <c r="T26" t="n">
-        <v>14.25504217585941</v>
+        <v>14.2550421758595</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -36683,7 +36683,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>15.16558603980737</v>
+        <v>34.70783856483252</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36713,7 +36713,7 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>19.54225252502542</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -36747,7 +36747,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>71.58851796052554</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -36762,10 +36762,10 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>24.03533975926398</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>91.78093274052326</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -36774,13 +36774,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>31.1929217324416</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>13.03483280682036</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -36829,22 +36829,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>157.4707519241425</v>
+        <v>157.4707519241424</v>
       </c>
       <c r="K29" t="n">
-        <v>157.0331230404655</v>
+        <v>78.79642978078768</v>
       </c>
       <c r="L29" t="n">
         <v>279.2085051469003</v>
       </c>
       <c r="M29" t="n">
-        <v>313.1490523519866</v>
+        <v>313.1490523519865</v>
       </c>
       <c r="N29" t="n">
-        <v>239.1386728821264</v>
+        <v>70.61684868354396</v>
       </c>
       <c r="O29" t="n">
-        <v>19.49595670670048</v>
+        <v>266.2544741649594</v>
       </c>
       <c r="P29" t="n">
         <v>217.3532877907523</v>
@@ -36853,13 +36853,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>40.04725578594451</v>
+        <v>40.04725578594449</v>
       </c>
       <c r="S29" t="n">
-        <v>8.639355450553712</v>
+        <v>8.639355450553683</v>
       </c>
       <c r="T29" t="n">
-        <v>14.25504217585941</v>
+        <v>14.25504217585938</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -36899,7 +36899,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>34.7078385648328</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -36926,7 +36926,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>34.70783856483288</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36984,10 +36984,10 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>50.26086026264188</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>8.924189125884457</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -36999,7 +36999,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>106.8920833739031</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -37011,13 +37011,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>32.80668527999765</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>13.03483280682036</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -37032,7 +37032,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.7138941503276</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -37066,19 +37066,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>157.4707519241424</v>
+        <v>157.4707519241425</v>
       </c>
       <c r="K32" t="n">
-        <v>226.2270582059104</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>42.37570590230238</v>
+        <v>42.3533381824043</v>
       </c>
       <c r="M32" t="n">
-        <v>21.86428264863105</v>
+        <v>313.1490523519866</v>
       </c>
       <c r="N32" t="n">
-        <v>307.4720156480399</v>
+        <v>242.4366718704915</v>
       </c>
       <c r="O32" t="n">
         <v>266.2544741649594</v>
@@ -37087,16 +37087,16 @@
         <v>217.3532877907523</v>
       </c>
       <c r="Q32" t="n">
-        <v>143.831773558336</v>
+        <v>143.8317735583361</v>
       </c>
       <c r="R32" t="n">
-        <v>40.04725578594449</v>
+        <v>40.04725578594451</v>
       </c>
       <c r="S32" t="n">
-        <v>8.639355450553683</v>
+        <v>8.639355450553712</v>
       </c>
       <c r="T32" t="n">
-        <v>14.25504217585938</v>
+        <v>14.25504217585941</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -37151,13 +37151,13 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>34.70783856483288</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>34.7078385648328</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37200,7 +37200,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>59.23824629952793</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -37236,7 +37236,7 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>115.8162724997876</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -37245,7 +37245,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>56.57802620025956</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,40 +37300,40 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>7.960948456208344</v>
+        <v>7.960948456208401</v>
       </c>
       <c r="J35" t="n">
-        <v>170.7685797866435</v>
+        <v>61.19397315513974</v>
       </c>
       <c r="K35" t="n">
-        <v>239.5248860684114</v>
+        <v>239.5248860684115</v>
       </c>
       <c r="L35" t="n">
-        <v>292.5063330094014</v>
+        <v>145.7994714387134</v>
       </c>
       <c r="M35" t="n">
-        <v>35.16211051113211</v>
+        <v>76.29388538749055</v>
       </c>
       <c r="N35" t="n">
-        <v>70.61684868354396</v>
+        <v>320.7698435105411</v>
       </c>
       <c r="O35" t="n">
-        <v>279.5523020274605</v>
+        <v>135.0868113990363</v>
       </c>
       <c r="P35" t="n">
-        <v>59.05519897508251</v>
+        <v>230.6511156532534</v>
       </c>
       <c r="Q35" t="n">
-        <v>19.54948747321888</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>53.34508364844555</v>
+        <v>10.760843570753</v>
       </c>
       <c r="S35" t="n">
-        <v>21.93718331305475</v>
+        <v>21.93718331305481</v>
       </c>
       <c r="T35" t="n">
-        <v>27.55287003836045</v>
+        <v>27.55287003836051</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37373,7 +37373,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>16.88765304562236</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -37391,7 +37391,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>16.88765304562241</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37437,7 +37437,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>72.53607416202902</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -37455,7 +37455,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>7.723108301072366</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>80.25918246310151</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -37537,10 +37537,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>7.960948456208401</v>
       </c>
       <c r="J38" t="n">
-        <v>163.1917773030226</v>
+        <v>170.7685797866435</v>
       </c>
       <c r="K38" t="n">
         <v>239.5248860684115</v>
@@ -37549,28 +37549,28 @@
         <v>292.5063330094014</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>322.6419677732279</v>
       </c>
       <c r="N38" t="n">
-        <v>320.769843510541</v>
+        <v>70.61684868354396</v>
       </c>
       <c r="O38" t="n">
-        <v>32.79378456920154</v>
+        <v>32.79378456920157</v>
       </c>
       <c r="P38" t="n">
-        <v>22.12555275813258</v>
+        <v>37.88334664446399</v>
       </c>
       <c r="Q38" t="n">
-        <v>157.1296014208371</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>53.34508364844561</v>
       </c>
       <c r="S38" t="n">
-        <v>21.93718331305478</v>
+        <v>21.93718331305481</v>
       </c>
       <c r="T38" t="n">
-        <v>27.55287003836048</v>
+        <v>27.55287003836051</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>16.88765304562236</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37628,7 +37628,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>16.88765304562239</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37692,7 +37692,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>80.25918246310137</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -37716,7 +37716,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>80.25918246310142</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37777,19 +37777,19 @@
         <v>7.960948456208429</v>
       </c>
       <c r="J41" t="n">
-        <v>61.19397315513977</v>
+        <v>170.7685797866436</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>239.5248860684115</v>
       </c>
       <c r="L41" t="n">
-        <v>292.5063330094014</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>35.1621105111322</v>
+        <v>198.6567669200546</v>
       </c>
       <c r="N41" t="n">
-        <v>110.5403107576694</v>
+        <v>70.61684868354396</v>
       </c>
       <c r="O41" t="n">
         <v>279.5523020274606</v>
@@ -37798,10 +37798,10 @@
         <v>230.6511156532534</v>
       </c>
       <c r="Q41" t="n">
-        <v>157.1296014208372</v>
+        <v>19.54948747321897</v>
       </c>
       <c r="R41" t="n">
-        <v>53.34508364844564</v>
+        <v>10.76084357075302</v>
       </c>
       <c r="S41" t="n">
         <v>21.93718331305483</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>16.88765304562234</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37889,7 +37889,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>12.9238458485303</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -37901,7 +37901,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>3.963807197092038</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -37917,7 +37917,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>80.25918246310131</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>80.25918246310131</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -38014,34 +38014,34 @@
         <v>7.960948456208344</v>
       </c>
       <c r="J44" t="n">
-        <v>170.7685797866435</v>
+        <v>61.19397315513969</v>
       </c>
       <c r="K44" t="n">
-        <v>29.47865872229669</v>
+        <v>239.5248860684114</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>44.47736316758346</v>
       </c>
       <c r="M44" t="n">
         <v>322.6419677732279</v>
       </c>
       <c r="N44" t="n">
-        <v>70.61684868354396</v>
+        <v>320.769843510541</v>
       </c>
       <c r="O44" t="n">
-        <v>279.5523020274605</v>
+        <v>220.5235834926052</v>
       </c>
       <c r="P44" t="n">
-        <v>136.5477881208844</v>
+        <v>22.12555275813255</v>
       </c>
       <c r="Q44" t="n">
-        <v>157.1296014208371</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>53.34508364844555</v>
+        <v>10.76084357075294</v>
       </c>
       <c r="S44" t="n">
-        <v>21.93718331305475</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>27.55287003836045</v>
@@ -38117,7 +38117,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>16.88765304562242</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38135,7 +38135,7 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>16.88765304562242</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>34.1546693206028</v>
       </c>
       <c r="K46" t="n">
-        <v>80.2591824631015</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -38196,7 +38196,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.10451314249869</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
